--- a/Signalétique.xlsx
+++ b/Signalétique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seble\Code\env\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE2E783-2CDF-481C-B4FF-9BE7958EAA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86196386-4706-456E-8563-4D16C385B9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="212">
   <si>
     <t>Marché</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Variation %</t>
   </si>
   <si>
-    <t>Trackers</t>
-  </si>
-  <si>
     <t>AMUNDI COR STOX600</t>
   </si>
   <si>
@@ -330,9 +327,6 @@
   </si>
   <si>
     <t>LU2823898353</t>
-  </si>
-  <si>
-    <t>Obligation</t>
   </si>
   <si>
     <t>Actions</t>
@@ -684,10 +678,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="General\ [$EUR]"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -727,29 +728,473 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="55">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -765,63 +1210,63 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Positions_Table" displayName="Positions_Table" ref="A1:BB36" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Positions_Table" displayName="Positions_Table" ref="A1:BB36" totalsRowShown="0" dataDxfId="54">
   <autoFilter ref="A1:BB36" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="54">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Type d'instr"/>
-    <tableColumn id="16" xr3:uid="{94AEAA9C-01FD-4552-80C5-B58EAB6A0274}" name="Isin"/>
-    <tableColumn id="18" xr3:uid="{937F896E-58F8-4868-B80F-BFBBD02E1A67}" name="Classe d'actifs"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Nom"/>
-    <tableColumn id="17" xr3:uid="{A38B70B5-75C6-42AE-B07E-39155C78ACA7}" name="Nom Long"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Symbole"/>
-    <tableColumn id="19" xr3:uid="{042E1319-717D-42EB-9B03-27CBCD2720D8}" name="Banques Dispo"/>
-    <tableColumn id="14" xr3:uid="{2DA23C43-437A-4010-B4D9-1DDAFDBF9426}" name="Devise"/>
-    <tableColumn id="13" xr3:uid="{FD913B7B-AA05-4E5A-A570-922AA2AD4DEA}" name="Taux"/>
-    <tableColumn id="57" xr3:uid="{D816C884-8520-4A17-9A92-0616BD976FD1}" name="Date de fin"/>
-    <tableColumn id="2" xr3:uid="{1CDD588F-9B50-4909-86EE-EB22DA16F699}" name="Qualité credit"/>
-    <tableColumn id="20" xr3:uid="{610D877A-44A8-4C25-B368-79F7B4C8B6D8}" name="TER"/>
-    <tableColumn id="21" xr3:uid="{38295387-4B38-46BB-A543-74EBC82B3B79}" name="Cap/Dis"/>
-    <tableColumn id="11" xr3:uid="{3AAF35B0-38D6-4114-9798-CC5EBB299325}" name="ESG"/>
-    <tableColumn id="22" xr3:uid="{BFC7E6FB-55E7-4616-AB75-6BB97A6EAD10}" name="Replication"/>
-    <tableColumn id="23" xr3:uid="{C54A03B2-B159-4DB7-8C75-33618236C68B}" name="Taille du Fonds"/>
-    <tableColumn id="24" xr3:uid="{409CD19D-D5C7-46E4-9A0F-2E44F1DCEA5D}" name="Positions"/>
-    <tableColumn id="25" xr3:uid="{FD43C04F-E932-441C-ACFE-7F8E81EA5BB7}" name="Couverture de change"/>
-    <tableColumn id="27" xr3:uid="{50F2E838-79D4-4820-855D-51D8F839367D}" name="USA"/>
-    <tableColumn id="28" xr3:uid="{E6A25C50-921E-4C76-AAB8-20B570C039EE}" name="Japon"/>
-    <tableColumn id="29" xr3:uid="{599395A0-E0DE-49DB-9857-DA1182459938}" name="Grande Bretagne"/>
-    <tableColumn id="30" xr3:uid="{E3B81230-45A5-4EFF-9E80-809D3FEDD90C}" name="Canada"/>
-    <tableColumn id="26" xr3:uid="{A6A7F314-EE88-4102-978C-2D9645347E54}" name="Pays Emergeants Hors Chine et Japon"/>
-    <tableColumn id="31" xr3:uid="{F25E201E-6C64-46F9-95BF-7DA2FE061D89}" name="Australie"/>
-    <tableColumn id="32" xr3:uid="{5399BF12-1306-43D3-BE9F-9F48E0E1B9A2}" name="Suède"/>
-    <tableColumn id="33" xr3:uid="{6463C7F9-EA3F-44A6-AA72-65967D6ED2C5}" name="Suisse"/>
-    <tableColumn id="34" xr3:uid="{5014923F-65AC-4C3A-8B9A-0CF878DB01CF}" name="Chine"/>
-    <tableColumn id="35" xr3:uid="{524BC43D-A36B-44D1-9160-171BC2603CCB}" name="Israel"/>
-    <tableColumn id="36" xr3:uid="{44198B90-47C4-48EC-B797-784444C31921}" name="Allemagne"/>
-    <tableColumn id="15" xr3:uid="{C7668AAE-3655-4FA8-B4F9-BCADEE038460}" name="Nouvelle Zelande"/>
-    <tableColumn id="37" xr3:uid="{06A23BFC-854D-45E2-9F8D-DF0309998849}" name="Pays-Bas"/>
-    <tableColumn id="38" xr3:uid="{88236FDE-0F45-4195-A6FA-A8B2A7FC370E}" name="Irlande"/>
-    <tableColumn id="39" xr3:uid="{68B7FB4A-87F3-483F-836D-FE77C7CAE622}" name="Espagne"/>
-    <tableColumn id="40" xr3:uid="{F0EA963C-8623-4084-ABC1-802DDF745617}" name="Italie"/>
-    <tableColumn id="41" xr3:uid="{0221ACEA-33F8-4543-A23A-827595C7CCB0}" name="France"/>
-    <tableColumn id="42" xr3:uid="{0D03D1A7-7CE8-44CA-93B9-C72201AE9C3A}" name="Autre Pays" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{E8A10A15-6AF7-4AED-8D48-84F2430242AD}" name="Etats"/>
-    <tableColumn id="43" xr3:uid="{6955AA95-535B-44A3-8AF4-B11772CCEC11}" name="Industrie"/>
-    <tableColumn id="44" xr3:uid="{A7BAD2C0-BC3C-46DB-8E5A-3BE52A972AD6}" name="Finance"/>
-    <tableColumn id="45" xr3:uid="{3DB05494-787F-4791-A91B-F369F50BBCCB}" name="Consommation Cyclique"/>
-    <tableColumn id="46" xr3:uid="{F5C5A897-2233-4236-B3B7-E98C0463CFE4}" name="Technologie"/>
-    <tableColumn id="47" xr3:uid="{7D6BF6C7-9321-4F09-90B7-7311F503679F}" name="Santé"/>
-    <tableColumn id="48" xr3:uid="{5D3E894A-3096-4EA9-97C3-DFF59CAA3A4C}" name="Consommation Defensive"/>
-    <tableColumn id="49" xr3:uid="{D0B88430-3160-4BDD-AB88-A9F602474AA9}" name="Communication"/>
-    <tableColumn id="50" xr3:uid="{501FB8AA-B04A-4A94-8BBB-4C34328AAA84}" name="Immobilier"/>
-    <tableColumn id="51" xr3:uid="{A5919E93-9304-4E17-A494-9128A62A945A}" name="Matières Premières"/>
-    <tableColumn id="52" xr3:uid="{F372531A-CF59-477D-9101-9FB12A792FD8}" name="Energie"/>
-    <tableColumn id="53" xr3:uid="{226F2DAA-00FC-4F33-882E-E3C0D0AD09E4}" name="Service Publiques"/>
-    <tableColumn id="54" xr3:uid="{1F5E8F7F-9A58-42E2-B030-CA9DF7E64D42}" name="Services de consommation"/>
-    <tableColumn id="55" xr3:uid="{1F6AF787-17DE-46E8-8043-8BDFE7A058AA}" name="Autre Secteur" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{EA190F4F-1407-4E0D-B8BC-03F8CD3E18A6}" name="Etats2"/>
-    <tableColumn id="6" xr3:uid="{850A99C9-2711-4F88-A870-7A34AC929224}" name="Banque Emetteur"/>
-    <tableColumn id="7" xr3:uid="{46B551DF-86C3-4BF8-8B6D-CF11DD3FAD6D}" name="Entreprises"/>
-    <tableColumn id="8" xr3:uid="{BDA4CC87-C5E8-49D4-A62C-D030726D1728}" name="Autre Emetteur" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Type d'instr" dataDxfId="53"/>
+    <tableColumn id="16" xr3:uid="{94AEAA9C-01FD-4552-80C5-B58EAB6A0274}" name="Isin" dataDxfId="52"/>
+    <tableColumn id="18" xr3:uid="{937F896E-58F8-4868-B80F-BFBBD02E1A67}" name="Classe d'actifs" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Nom" dataDxfId="50"/>
+    <tableColumn id="17" xr3:uid="{A38B70B5-75C6-42AE-B07E-39155C78ACA7}" name="Nom Long" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Symbole" dataDxfId="48"/>
+    <tableColumn id="19" xr3:uid="{042E1319-717D-42EB-9B03-27CBCD2720D8}" name="Banques Dispo" dataDxfId="47"/>
+    <tableColumn id="14" xr3:uid="{2DA23C43-437A-4010-B4D9-1DDAFDBF9426}" name="Devise" dataDxfId="46"/>
+    <tableColumn id="13" xr3:uid="{FD913B7B-AA05-4E5A-A570-922AA2AD4DEA}" name="Taux" dataDxfId="45"/>
+    <tableColumn id="57" xr3:uid="{D816C884-8520-4A17-9A92-0616BD976FD1}" name="Date de fin" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{1CDD588F-9B50-4909-86EE-EB22DA16F699}" name="Qualité credit" dataDxfId="43"/>
+    <tableColumn id="20" xr3:uid="{610D877A-44A8-4C25-B368-79F7B4C8B6D8}" name="TER" dataDxfId="42"/>
+    <tableColumn id="21" xr3:uid="{38295387-4B38-46BB-A543-74EBC82B3B79}" name="Cap/Dis" dataDxfId="41"/>
+    <tableColumn id="11" xr3:uid="{3AAF35B0-38D6-4114-9798-CC5EBB299325}" name="ESG" dataDxfId="40"/>
+    <tableColumn id="22" xr3:uid="{BFC7E6FB-55E7-4616-AB75-6BB97A6EAD10}" name="Replication" dataDxfId="39"/>
+    <tableColumn id="23" xr3:uid="{C54A03B2-B159-4DB7-8C75-33618236C68B}" name="Taille du Fonds" dataDxfId="38"/>
+    <tableColumn id="24" xr3:uid="{409CD19D-D5C7-46E4-9A0F-2E44F1DCEA5D}" name="Positions" dataDxfId="37"/>
+    <tableColumn id="25" xr3:uid="{FD43C04F-E932-441C-ACFE-7F8E81EA5BB7}" name="Couverture de change" dataDxfId="36"/>
+    <tableColumn id="27" xr3:uid="{50F2E838-79D4-4820-855D-51D8F839367D}" name="USA" dataDxfId="35" dataCellStyle="Pourcentage"/>
+    <tableColumn id="28" xr3:uid="{E6A25C50-921E-4C76-AAB8-20B570C039EE}" name="Japon" dataDxfId="34" dataCellStyle="Pourcentage"/>
+    <tableColumn id="29" xr3:uid="{599395A0-E0DE-49DB-9857-DA1182459938}" name="Grande Bretagne" dataDxfId="33" dataCellStyle="Pourcentage"/>
+    <tableColumn id="30" xr3:uid="{E3B81230-45A5-4EFF-9E80-809D3FEDD90C}" name="Canada" dataDxfId="32" dataCellStyle="Pourcentage"/>
+    <tableColumn id="26" xr3:uid="{A6A7F314-EE88-4102-978C-2D9645347E54}" name="Pays Emergeants Hors Chine et Japon" dataDxfId="31" dataCellStyle="Pourcentage"/>
+    <tableColumn id="31" xr3:uid="{F25E201E-6C64-46F9-95BF-7DA2FE061D89}" name="Australie" dataDxfId="30" dataCellStyle="Pourcentage"/>
+    <tableColumn id="32" xr3:uid="{5399BF12-1306-43D3-BE9F-9F48E0E1B9A2}" name="Suède" dataDxfId="29" dataCellStyle="Pourcentage"/>
+    <tableColumn id="33" xr3:uid="{6463C7F9-EA3F-44A6-AA72-65967D6ED2C5}" name="Suisse" dataDxfId="28" dataCellStyle="Pourcentage"/>
+    <tableColumn id="34" xr3:uid="{5014923F-65AC-4C3A-8B9A-0CF878DB01CF}" name="Chine" dataDxfId="27" dataCellStyle="Pourcentage"/>
+    <tableColumn id="35" xr3:uid="{524BC43D-A36B-44D1-9160-171BC2603CCB}" name="Israel" dataDxfId="26" dataCellStyle="Pourcentage"/>
+    <tableColumn id="36" xr3:uid="{44198B90-47C4-48EC-B797-784444C31921}" name="Allemagne" dataDxfId="25" dataCellStyle="Pourcentage"/>
+    <tableColumn id="15" xr3:uid="{C7668AAE-3655-4FA8-B4F9-BCADEE038460}" name="Nouvelle Zelande" dataDxfId="24" dataCellStyle="Pourcentage"/>
+    <tableColumn id="37" xr3:uid="{06A23BFC-854D-45E2-9F8D-DF0309998849}" name="Pays-Bas" dataDxfId="23" dataCellStyle="Pourcentage"/>
+    <tableColumn id="38" xr3:uid="{88236FDE-0F45-4195-A6FA-A8B2A7FC370E}" name="Irlande" dataDxfId="22" dataCellStyle="Pourcentage"/>
+    <tableColumn id="39" xr3:uid="{68B7FB4A-87F3-483F-836D-FE77C7CAE622}" name="Espagne" dataDxfId="21" dataCellStyle="Pourcentage"/>
+    <tableColumn id="40" xr3:uid="{F0EA963C-8623-4084-ABC1-802DDF745617}" name="Italie" dataDxfId="20" dataCellStyle="Pourcentage"/>
+    <tableColumn id="41" xr3:uid="{0221ACEA-33F8-4543-A23A-827595C7CCB0}" name="France" dataDxfId="19" dataCellStyle="Pourcentage"/>
+    <tableColumn id="42" xr3:uid="{0D03D1A7-7CE8-44CA-93B9-C72201AE9C3A}" name="Autre Pays" dataDxfId="18" dataCellStyle="Pourcentage"/>
+    <tableColumn id="12" xr3:uid="{E8A10A15-6AF7-4AED-8D48-84F2430242AD}" name="Etats" dataDxfId="17" dataCellStyle="Pourcentage"/>
+    <tableColumn id="43" xr3:uid="{6955AA95-535B-44A3-8AF4-B11772CCEC11}" name="Industrie" dataDxfId="16" dataCellStyle="Pourcentage"/>
+    <tableColumn id="44" xr3:uid="{A7BAD2C0-BC3C-46DB-8E5A-3BE52A972AD6}" name="Finance" dataDxfId="15" dataCellStyle="Pourcentage"/>
+    <tableColumn id="45" xr3:uid="{3DB05494-787F-4791-A91B-F369F50BBCCB}" name="Consommation Cyclique" dataDxfId="14" dataCellStyle="Pourcentage"/>
+    <tableColumn id="46" xr3:uid="{F5C5A897-2233-4236-B3B7-E98C0463CFE4}" name="Technologie" dataDxfId="13" dataCellStyle="Pourcentage"/>
+    <tableColumn id="47" xr3:uid="{7D6BF6C7-9321-4F09-90B7-7311F503679F}" name="Santé" dataDxfId="12" dataCellStyle="Pourcentage"/>
+    <tableColumn id="48" xr3:uid="{5D3E894A-3096-4EA9-97C3-DFF59CAA3A4C}" name="Consommation Defensive" dataDxfId="11" dataCellStyle="Pourcentage"/>
+    <tableColumn id="49" xr3:uid="{D0B88430-3160-4BDD-AB88-A9F602474AA9}" name="Communication" dataDxfId="10" dataCellStyle="Pourcentage"/>
+    <tableColumn id="50" xr3:uid="{501FB8AA-B04A-4A94-8BBB-4C34328AAA84}" name="Immobilier" dataDxfId="9" dataCellStyle="Pourcentage"/>
+    <tableColumn id="51" xr3:uid="{A5919E93-9304-4E17-A494-9128A62A945A}" name="Matières Premières" dataDxfId="8" dataCellStyle="Pourcentage"/>
+    <tableColumn id="52" xr3:uid="{F372531A-CF59-477D-9101-9FB12A792FD8}" name="Energie" dataDxfId="7" dataCellStyle="Pourcentage"/>
+    <tableColumn id="53" xr3:uid="{226F2DAA-00FC-4F33-882E-E3C0D0AD09E4}" name="Service Publiques" dataDxfId="6" dataCellStyle="Pourcentage"/>
+    <tableColumn id="54" xr3:uid="{1F5E8F7F-9A58-42E2-B030-CA9DF7E64D42}" name="Services de consommation" dataDxfId="5" dataCellStyle="Pourcentage"/>
+    <tableColumn id="55" xr3:uid="{1F6AF787-17DE-46E8-8043-8BDFE7A058AA}" name="Autre Secteur" dataDxfId="4" dataCellStyle="Pourcentage"/>
+    <tableColumn id="5" xr3:uid="{EA190F4F-1407-4E0D-B8BC-03F8CD3E18A6}" name="Etats2" dataDxfId="3" dataCellStyle="Pourcentage"/>
+    <tableColumn id="6" xr3:uid="{850A99C9-2711-4F88-A870-7A34AC929224}" name="Banque Emetteur" dataDxfId="2" dataCellStyle="Pourcentage"/>
+    <tableColumn id="7" xr3:uid="{46B551DF-86C3-4BF8-8B6D-CF11DD3FAD6D}" name="Entreprises" dataDxfId="1" dataCellStyle="Pourcentage"/>
+    <tableColumn id="8" xr3:uid="{BDA4CC87-C5E8-49D4-A62C-D030726D1728}" name="Autre Emetteur" dataDxfId="0" dataCellStyle="Pourcentage"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1175,10 +1620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB36"/>
+  <dimension ref="A1:BB80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1191,7 +1636,7 @@
     <col min="6" max="6" width="25.08984375" customWidth="1"/>
     <col min="7" max="7" width="23.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="23.36328125" customWidth="1"/>
-    <col min="10" max="10" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.1796875" customWidth="1"/>
@@ -1217,195 +1662,195 @@
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AG1" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="AK1" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="AM1" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB1" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="3">
+      <c r="L2" s="7">
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="M2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O2" t="s">
         <v>142</v>
-      </c>
-      <c r="O2" t="s">
-        <v>144</v>
       </c>
       <c r="P2">
         <v>16513</v>
@@ -1414,75 +1859,136 @@
         <v>612</v>
       </c>
       <c r="R2" t="s">
-        <v>145</v>
-      </c>
-      <c r="U2">
-        <v>20</v>
-      </c>
-      <c r="Z2">
-        <v>14</v>
-      </c>
-      <c r="AC2">
-        <v>14</v>
-      </c>
-      <c r="AI2">
-        <v>14</v>
-      </c>
-      <c r="AJ2">
-        <v>38</v>
-      </c>
-      <c r="AL2">
-        <v>18</v>
-      </c>
-      <c r="AM2">
-        <v>24</v>
-      </c>
-      <c r="AN2">
-        <v>8</v>
-      </c>
-      <c r="AO2">
-        <v>8</v>
-      </c>
-      <c r="AP2">
-        <v>11</v>
-      </c>
-      <c r="AQ2">
-        <v>7</v>
-      </c>
-      <c r="AX2">
-        <v>24</v>
-      </c>
-      <c r="BB2">
-        <v>100</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="S2" s="8">
+        <v>0</v>
+      </c>
+      <c r="T2" s="8">
+        <v>0</v>
+      </c>
+      <c r="U2" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="V2" s="8">
+        <v>0</v>
+      </c>
+      <c r="W2" s="8">
+        <v>0</v>
+      </c>
+      <c r="X2" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AD2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AJ2" s="8">
+        <v>0.38</v>
+      </c>
+      <c r="AK2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="AM2" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="AN2" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="AO2" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="AP2" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="AQ2" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AR2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="8"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="3">
+      <c r="L3" s="7">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="M3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P3">
         <v>1561</v>
@@ -1491,66 +1997,139 @@
         <v>47</v>
       </c>
       <c r="R3" t="s">
-        <v>145</v>
-      </c>
-      <c r="S3">
-        <v>52</v>
-      </c>
-      <c r="T3">
-        <v>6</v>
-      </c>
-      <c r="U3">
-        <v>14</v>
-      </c>
-      <c r="AI3">
-        <v>5</v>
-      </c>
-      <c r="AJ3">
-        <v>23</v>
-      </c>
-      <c r="AL3">
-        <v>85</v>
-      </c>
-      <c r="AO3">
-        <v>2</v>
-      </c>
-      <c r="AX3">
-        <v>13</v>
-      </c>
-      <c r="BB3">
-        <v>100</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="S3" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="T3" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="U3" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V3" s="8">
+        <v>0</v>
+      </c>
+      <c r="W3" s="8">
+        <v>0</v>
+      </c>
+      <c r="X3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AJ3" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="AK3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="AM3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="AP3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
+      <c r="BB3" s="8"/>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
       <c r="K4" t="s">
-        <v>148</v>
-      </c>
-      <c r="L4" s="3">
+        <v>146</v>
+      </c>
+      <c r="L4" s="7">
         <v>6.6E-3</v>
       </c>
       <c r="M4" t="s">
+        <v>140</v>
+      </c>
+      <c r="O4" t="s">
         <v>142</v>
-      </c>
-      <c r="O4" t="s">
-        <v>144</v>
       </c>
       <c r="P4">
         <v>5310</v>
@@ -1559,54 +2138,144 @@
         <v>50</v>
       </c>
       <c r="R4" t="s">
-        <v>145</v>
-      </c>
-      <c r="AJ4">
-        <v>100</v>
-      </c>
-      <c r="AX4">
-        <v>100</v>
-      </c>
-      <c r="AY4">
+        <v>143</v>
+      </c>
+      <c r="S4" s="8">
+        <v>0</v>
+      </c>
+      <c r="T4" s="8">
+        <v>0</v>
+      </c>
+      <c r="U4" s="8">
+        <v>0</v>
+      </c>
+      <c r="V4" s="8">
+        <v>0</v>
+      </c>
+      <c r="W4" s="8">
+        <v>0</v>
+      </c>
+      <c r="X4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="8">
         <v>1</v>
       </c>
-      <c r="AZ4">
-        <v>74</v>
-      </c>
-      <c r="BA4">
-        <v>10</v>
-      </c>
-      <c r="BB4">
-        <v>15</v>
+      <c r="AK4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="AZ4" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="BA4" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="BB4" s="8">
+        <v>0.15</v>
       </c>
     </row>
     <row r="5" spans="1:54" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="3">
+      <c r="L5" s="7">
         <v>1.5E-3</v>
       </c>
       <c r="M5" t="s">
+        <v>140</v>
+      </c>
+      <c r="O5" t="s">
         <v>142</v>
-      </c>
-      <c r="O5" t="s">
-        <v>144</v>
       </c>
       <c r="P5">
         <v>330</v>
@@ -1615,75 +2284,139 @@
         <v>167</v>
       </c>
       <c r="R5" t="s">
-        <v>145</v>
-      </c>
-      <c r="T5">
-        <v>99.6</v>
-      </c>
-      <c r="AJ5">
-        <v>0.40000000000000568</v>
-      </c>
-      <c r="AL5">
-        <v>20</v>
-      </c>
-      <c r="AM5">
-        <v>22</v>
-      </c>
-      <c r="AN5">
-        <v>16</v>
-      </c>
-      <c r="AO5">
-        <v>16</v>
-      </c>
-      <c r="AP5">
-        <v>12</v>
-      </c>
-      <c r="AQ5">
-        <v>1</v>
-      </c>
-      <c r="AR5">
-        <v>5</v>
-      </c>
-      <c r="AS5">
-        <v>7</v>
-      </c>
-      <c r="AX5">
-        <v>1</v>
-      </c>
-      <c r="BB5">
-        <v>100</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="S5" s="8">
+        <v>0</v>
+      </c>
+      <c r="T5" s="8">
+        <v>0.996</v>
+      </c>
+      <c r="U5" s="8">
+        <v>0</v>
+      </c>
+      <c r="V5" s="8">
+        <v>0</v>
+      </c>
+      <c r="W5" s="8">
+        <v>0</v>
+      </c>
+      <c r="X5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="8">
+        <v>4.0000000000000565E-3</v>
+      </c>
+      <c r="AK5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="AM5" s="8">
+        <v>0.22</v>
+      </c>
+      <c r="AN5" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="AO5" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="AP5" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="AQ5" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="AR5" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AS5" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AT5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="8"/>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F6">
         <v>171289902</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="7">
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="M6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N6">
         <v>9</v>
       </c>
       <c r="O6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P6">
         <v>500</v>
@@ -1692,60 +2425,139 @@
         <v>50</v>
       </c>
       <c r="R6" t="s">
-        <v>145</v>
-      </c>
-      <c r="S6">
-        <v>44</v>
-      </c>
-      <c r="U6">
-        <v>10</v>
-      </c>
-      <c r="AI6">
-        <v>8</v>
-      </c>
-      <c r="AJ6">
-        <v>38</v>
-      </c>
-      <c r="AL6">
-        <v>100</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>100</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="S6" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="T6" s="8">
+        <v>0</v>
+      </c>
+      <c r="U6" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="V6" s="8">
+        <v>0</v>
+      </c>
+      <c r="W6" s="8">
+        <v>0</v>
+      </c>
+      <c r="X6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="AJ6" s="8">
+        <v>0.38</v>
+      </c>
+      <c r="AK6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="8"/>
+      <c r="AZ6" s="8"/>
+      <c r="BA6" s="8"/>
+      <c r="BB6" s="8"/>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="3">
+      <c r="L7" s="7">
         <v>2.1499999999999998E-2</v>
       </c>
       <c r="M7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N7">
         <v>8</v>
       </c>
       <c r="O7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P7">
         <v>145</v>
@@ -1754,45 +2566,136 @@
         <v>50</v>
       </c>
       <c r="R7" t="s">
-        <v>145</v>
-      </c>
-      <c r="AJ7">
-        <v>100</v>
-      </c>
-      <c r="AX7">
-        <v>100</v>
-      </c>
-      <c r="BB7">
-        <v>100</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0</v>
+      </c>
+      <c r="T7" s="8">
+        <v>0</v>
+      </c>
+      <c r="U7" s="8">
+        <v>0</v>
+      </c>
+      <c r="V7" s="8">
+        <v>0</v>
+      </c>
+      <c r="W7" s="8">
+        <v>0</v>
+      </c>
+      <c r="X7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="8"/>
+      <c r="AZ7" s="8"/>
+      <c r="BA7" s="8"/>
+      <c r="BB7" s="8"/>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
         <v>153</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="s">
-        <v>155</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="L8" s="7">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="M8" t="s">
+        <v>140</v>
+      </c>
+      <c r="O8" t="s">
         <v>142</v>
-      </c>
-      <c r="O8" t="s">
-        <v>144</v>
       </c>
       <c r="P8">
         <v>4120</v>
@@ -1801,45 +2704,136 @@
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>145</v>
-      </c>
-      <c r="AJ8">
-        <v>100</v>
-      </c>
-      <c r="AX8">
-        <v>100</v>
-      </c>
-      <c r="BB8">
-        <v>100</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="S8" s="8">
+        <v>0</v>
+      </c>
+      <c r="T8" s="8">
+        <v>0</v>
+      </c>
+      <c r="U8" s="8">
+        <v>0</v>
+      </c>
+      <c r="V8" s="8">
+        <v>0</v>
+      </c>
+      <c r="W8" s="8">
+        <v>0</v>
+      </c>
+      <c r="X8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY8" s="8"/>
+      <c r="AZ8" s="8"/>
+      <c r="BA8" s="8"/>
+      <c r="BB8" s="8"/>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" t="s">
-        <v>156</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M9" t="s">
+        <v>140</v>
+      </c>
+      <c r="O9" t="s">
         <v>142</v>
-      </c>
-      <c r="O9" t="s">
-        <v>144</v>
       </c>
       <c r="P9">
         <v>1482</v>
@@ -1848,63 +2842,142 @@
         <v>30</v>
       </c>
       <c r="R9" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA9">
-        <v>94</v>
-      </c>
-      <c r="AJ9">
-        <v>6</v>
-      </c>
-      <c r="AN9">
-        <v>44</v>
-      </c>
-      <c r="AO9">
-        <v>24</v>
-      </c>
-      <c r="AR9">
-        <v>28</v>
-      </c>
-      <c r="AX9">
-        <v>4</v>
-      </c>
-      <c r="BB9">
-        <v>100</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="S9" s="8">
+        <v>0</v>
+      </c>
+      <c r="T9" s="8">
+        <v>0</v>
+      </c>
+      <c r="U9" s="8">
+        <v>0</v>
+      </c>
+      <c r="V9" s="8">
+        <v>0</v>
+      </c>
+      <c r="W9" s="8">
+        <v>0</v>
+      </c>
+      <c r="X9" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>0.94</v>
+      </c>
+      <c r="AB9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="AK9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="AO9" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="AP9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AS9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="AY9" s="8"/>
+      <c r="AZ9" s="8"/>
+      <c r="BA9" s="8"/>
+      <c r="BB9" s="8"/>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
         <v>98</v>
       </c>
       <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" t="s">
         <v>23</v>
       </c>
-      <c r="E10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10">
+      <c r="J10" s="5">
         <v>47118</v>
       </c>
       <c r="K10" t="s">
-        <v>148</v>
-      </c>
-      <c r="L10" s="3">
+        <v>146</v>
+      </c>
+      <c r="L10" s="7">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="M10" t="s">
+        <v>140</v>
+      </c>
+      <c r="O10" t="s">
         <v>142</v>
-      </c>
-      <c r="O10" t="s">
-        <v>144</v>
       </c>
       <c r="P10">
         <v>969</v>
@@ -1913,51 +2986,144 @@
         <v>388</v>
       </c>
       <c r="R10" t="s">
-        <v>145</v>
-      </c>
-      <c r="AJ10">
-        <v>100</v>
-      </c>
-      <c r="AX10">
-        <v>100</v>
-      </c>
-      <c r="AZ10">
-        <v>50</v>
-      </c>
-      <c r="BA10">
-        <v>50</v>
-      </c>
-      <c r="BB10">
+        <v>143</v>
+      </c>
+      <c r="S10" s="8">
+        <v>0</v>
+      </c>
+      <c r="T10" s="8">
+        <v>0</v>
+      </c>
+      <c r="U10" s="8">
+        <v>0</v>
+      </c>
+      <c r="V10" s="8">
+        <v>0</v>
+      </c>
+      <c r="W10" s="8">
+        <v>0</v>
+      </c>
+      <c r="X10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="BA10" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="BB10" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
-        <v>157</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="3">
+      <c r="L11" s="7">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="M11" t="s">
+        <v>140</v>
+      </c>
+      <c r="O11" t="s">
         <v>142</v>
-      </c>
-      <c r="O11" t="s">
-        <v>144</v>
       </c>
       <c r="P11">
         <v>3109</v>
@@ -1966,66 +3132,136 @@
         <v>137</v>
       </c>
       <c r="R11" t="s">
-        <v>145</v>
-      </c>
-      <c r="S11">
-        <v>51</v>
-      </c>
-      <c r="T11">
-        <v>16</v>
-      </c>
-      <c r="Z11">
-        <v>6</v>
-      </c>
-      <c r="AC11">
-        <v>7</v>
-      </c>
-      <c r="AJ11">
-        <v>20</v>
-      </c>
-      <c r="AL11">
-        <v>26</v>
-      </c>
-      <c r="AO11">
-        <v>66</v>
-      </c>
-      <c r="AP11">
-        <v>3</v>
-      </c>
-      <c r="AX11">
-        <v>5</v>
-      </c>
-      <c r="BB11">
-        <v>100</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="S11" s="8">
+        <v>0.51</v>
+      </c>
+      <c r="T11" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="U11" s="8">
+        <v>0</v>
+      </c>
+      <c r="V11" s="8">
+        <v>0</v>
+      </c>
+      <c r="W11" s="8">
+        <v>0</v>
+      </c>
+      <c r="X11" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AD11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="AK11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="AM11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="8">
+        <v>0.66</v>
+      </c>
+      <c r="AP11" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="AQ11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AY11" s="8"/>
+      <c r="AZ11" s="8"/>
+      <c r="BA11" s="8"/>
+      <c r="BB11" s="8"/>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" t="s">
         <v>27</v>
       </c>
-      <c r="E12" t="s">
-        <v>159</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="L12" s="7">
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="M12" t="s">
+        <v>140</v>
+      </c>
+      <c r="O12" t="s">
         <v>142</v>
-      </c>
-      <c r="O12" t="s">
-        <v>144</v>
       </c>
       <c r="P12">
         <v>158</v>
@@ -2034,81 +3270,136 @@
         <v>277</v>
       </c>
       <c r="R12" t="s">
-        <v>145</v>
-      </c>
-      <c r="S12">
-        <v>63</v>
-      </c>
-      <c r="T12">
-        <v>11</v>
-      </c>
-      <c r="V12">
-        <v>4</v>
-      </c>
-      <c r="Z12">
-        <v>4</v>
-      </c>
-      <c r="AJ12">
-        <v>18</v>
-      </c>
-      <c r="AL12">
-        <v>7</v>
-      </c>
-      <c r="AM12">
-        <v>13</v>
-      </c>
-      <c r="AN12">
-        <v>6</v>
-      </c>
-      <c r="AO12">
-        <v>23</v>
-      </c>
-      <c r="AP12">
-        <v>15</v>
-      </c>
-      <c r="AQ12">
-        <v>10</v>
-      </c>
-      <c r="AR12">
-        <v>11</v>
-      </c>
-      <c r="AU12">
-        <v>3</v>
-      </c>
-      <c r="AX12">
-        <v>12</v>
-      </c>
-      <c r="BB12">
-        <v>100</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="S12" s="8">
+        <v>0.63</v>
+      </c>
+      <c r="T12" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="U12" s="8">
+        <v>0</v>
+      </c>
+      <c r="V12" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="W12" s="8">
+        <v>0</v>
+      </c>
+      <c r="X12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="AA12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="AK12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AM12" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="AN12" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="AO12" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="AP12" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="AQ12" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AR12" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="AS12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="AV12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="AY12" s="8"/>
+      <c r="AZ12" s="8"/>
+      <c r="BA12" s="8"/>
+      <c r="BB12" s="8"/>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" t="s">
         <v>29</v>
       </c>
-      <c r="E13" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="3">
+      <c r="L13" s="7">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="M13" t="s">
+        <v>140</v>
+      </c>
+      <c r="O13" t="s">
         <v>142</v>
-      </c>
-      <c r="O13" t="s">
-        <v>144</v>
       </c>
       <c r="P13">
         <v>1281</v>
@@ -2117,60 +3408,136 @@
         <v>110</v>
       </c>
       <c r="R13" t="s">
-        <v>145</v>
-      </c>
-      <c r="S13">
-        <v>64</v>
-      </c>
-      <c r="T13">
-        <v>12</v>
-      </c>
-      <c r="AJ13">
-        <v>24</v>
-      </c>
-      <c r="AL13">
-        <v>7</v>
-      </c>
-      <c r="AO13">
-        <v>83</v>
-      </c>
-      <c r="AS13">
-        <v>3</v>
-      </c>
-      <c r="AX13">
-        <v>7</v>
-      </c>
-      <c r="BB13">
-        <v>100</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="S13" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="T13" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="U13" s="8">
+        <v>0</v>
+      </c>
+      <c r="V13" s="8">
+        <v>0</v>
+      </c>
+      <c r="W13" s="8">
+        <v>0</v>
+      </c>
+      <c r="X13" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="AK13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AM13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="AP13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="AT13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AY13" s="8"/>
+      <c r="AZ13" s="8"/>
+      <c r="BA13" s="8"/>
+      <c r="BB13" s="8"/>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" t="s">
-        <v>162</v>
-      </c>
-      <c r="F14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="7">
         <v>1.4E-2</v>
       </c>
       <c r="M14" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" t="s">
         <v>142</v>
-      </c>
-      <c r="O14" t="s">
-        <v>144</v>
       </c>
       <c r="P14">
         <v>17000</v>
@@ -2179,81 +3546,136 @@
         <v>100</v>
       </c>
       <c r="R14" t="s">
-        <v>145</v>
-      </c>
-      <c r="S14">
-        <v>63</v>
-      </c>
-      <c r="U14">
-        <v>4</v>
-      </c>
-      <c r="AC14">
-        <v>10</v>
-      </c>
-      <c r="AI14">
-        <v>10</v>
-      </c>
-      <c r="AJ14">
-        <v>13</v>
-      </c>
-      <c r="AL14">
-        <v>11</v>
-      </c>
-      <c r="AM14">
-        <v>18</v>
-      </c>
-      <c r="AN14">
-        <v>10</v>
-      </c>
-      <c r="AO14">
-        <v>27</v>
-      </c>
-      <c r="AP14">
-        <v>11</v>
-      </c>
-      <c r="AQ14">
-        <v>5</v>
-      </c>
-      <c r="AR14">
-        <v>8</v>
-      </c>
-      <c r="AU14">
-        <v>6</v>
-      </c>
-      <c r="AX14">
-        <v>4</v>
-      </c>
-      <c r="BB14">
-        <v>100</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="S14" s="8">
+        <v>0.63</v>
+      </c>
+      <c r="T14" s="8">
+        <v>0</v>
+      </c>
+      <c r="U14" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="V14" s="8">
+        <v>0</v>
+      </c>
+      <c r="W14" s="8">
+        <v>0</v>
+      </c>
+      <c r="X14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AD14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AJ14" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="AK14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="AM14" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="AN14" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AO14" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="AP14" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="AQ14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AR14" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="AS14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="AV14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="AY14" s="8"/>
+      <c r="AZ14" s="8"/>
+      <c r="BA14" s="8"/>
+      <c r="BB14" s="8"/>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
         <v>85</v>
       </c>
-      <c r="C15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>33</v>
       </c>
-      <c r="E15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" t="s">
-        <v>34</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="7">
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="M15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15" t="s">
         <v>142</v>
-      </c>
-      <c r="O15" t="s">
-        <v>144</v>
       </c>
       <c r="P15">
         <v>4878</v>
@@ -2262,81 +3684,136 @@
         <v>1321</v>
       </c>
       <c r="R15" t="s">
-        <v>163</v>
-      </c>
-      <c r="S15">
-        <v>68</v>
-      </c>
-      <c r="T15">
-        <v>5</v>
-      </c>
-      <c r="U15">
-        <v>3</v>
-      </c>
-      <c r="V15">
-        <v>3</v>
-      </c>
-      <c r="AJ15">
-        <v>21</v>
-      </c>
-      <c r="AL15">
-        <v>10</v>
-      </c>
-      <c r="AM15">
-        <v>15</v>
-      </c>
-      <c r="AN15">
-        <v>10</v>
-      </c>
-      <c r="AO15">
-        <v>28</v>
-      </c>
-      <c r="AP15">
-        <v>9</v>
-      </c>
-      <c r="AQ15">
-        <v>5</v>
-      </c>
-      <c r="AR15">
-        <v>9</v>
-      </c>
-      <c r="AU15">
-        <v>3</v>
-      </c>
-      <c r="AX15">
-        <v>11</v>
-      </c>
-      <c r="BB15">
-        <v>100</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="S15" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="T15" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="U15" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="V15" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="W15" s="8">
+        <v>0</v>
+      </c>
+      <c r="X15" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="AK15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AM15" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="AN15" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AO15" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AP15" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="AQ15" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AR15" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="AS15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="AV15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="AY15" s="8"/>
+      <c r="AZ15" s="8"/>
+      <c r="BA15" s="8"/>
+      <c r="BB15" s="8"/>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s">
         <v>35</v>
       </c>
-      <c r="E16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" s="3">
+      <c r="L16" s="7">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="M16" t="s">
+        <v>140</v>
+      </c>
+      <c r="O16" t="s">
         <v>142</v>
-      </c>
-      <c r="O16" t="s">
-        <v>144</v>
       </c>
       <c r="P16">
         <v>4437</v>
@@ -2345,66 +3822,136 @@
         <v>180</v>
       </c>
       <c r="R16" t="s">
-        <v>145</v>
-      </c>
-      <c r="T16">
-        <v>100</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>25</v>
-      </c>
-      <c r="AM16">
-        <v>17</v>
-      </c>
-      <c r="AN16">
-        <v>17</v>
-      </c>
-      <c r="AO16">
-        <v>14</v>
-      </c>
-      <c r="AP16">
-        <v>7</v>
-      </c>
-      <c r="AQ16">
-        <v>5</v>
-      </c>
-      <c r="AX16">
-        <v>15</v>
-      </c>
-      <c r="BB16">
-        <v>100</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="S16" s="8">
+        <v>0</v>
+      </c>
+      <c r="T16" s="8">
+        <v>1</v>
+      </c>
+      <c r="U16" s="8">
+        <v>0</v>
+      </c>
+      <c r="V16" s="8">
+        <v>0</v>
+      </c>
+      <c r="W16" s="8">
+        <v>0</v>
+      </c>
+      <c r="X16" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="AM16" s="8">
+        <v>0.17</v>
+      </c>
+      <c r="AN16" s="8">
+        <v>0.17</v>
+      </c>
+      <c r="AO16" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AP16" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AQ16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AR16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="AY16" s="8"/>
+      <c r="AZ16" s="8"/>
+      <c r="BA16" s="8"/>
+      <c r="BB16" s="8"/>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" t="s">
         <v>37</v>
       </c>
-      <c r="E17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" t="s">
-        <v>38</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="7">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="M17" t="s">
+        <v>140</v>
+      </c>
+      <c r="O17" t="s">
         <v>142</v>
-      </c>
-      <c r="O17" t="s">
-        <v>144</v>
       </c>
       <c r="P17">
         <v>2997</v>
@@ -2413,60 +3960,136 @@
         <v>118</v>
       </c>
       <c r="R17" t="s">
-        <v>145</v>
-      </c>
-      <c r="S17">
-        <v>68</v>
-      </c>
-      <c r="T17">
-        <v>3</v>
-      </c>
-      <c r="U17">
-        <v>5</v>
-      </c>
-      <c r="Z17">
-        <v>8</v>
-      </c>
-      <c r="AJ17">
-        <v>16</v>
-      </c>
-      <c r="AP17">
-        <v>100</v>
-      </c>
-      <c r="AX17">
-        <v>0</v>
-      </c>
-      <c r="BB17">
-        <v>100</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="S17" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="T17" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="U17" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="V17" s="8">
+        <v>0</v>
+      </c>
+      <c r="W17" s="8">
+        <v>0</v>
+      </c>
+      <c r="X17" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="AA17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="AK17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="8">
+        <v>1</v>
+      </c>
+      <c r="AQ17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="8"/>
+      <c r="AZ17" s="8"/>
+      <c r="BA17" s="8"/>
+      <c r="BB17" s="8"/>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" t="s">
         <v>39</v>
       </c>
-      <c r="E18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" t="s">
-        <v>40</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="7">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="M18" t="s">
+        <v>140</v>
+      </c>
+      <c r="O18" t="s">
         <v>142</v>
-      </c>
-      <c r="O18" t="s">
-        <v>144</v>
       </c>
       <c r="P18">
         <v>541</v>
@@ -2475,60 +4098,136 @@
         <v>74</v>
       </c>
       <c r="R18" t="s">
-        <v>145</v>
-      </c>
-      <c r="S18">
-        <v>62</v>
-      </c>
-      <c r="U18">
-        <v>7</v>
-      </c>
-      <c r="AG18">
-        <v>8</v>
-      </c>
-      <c r="AH18">
-        <v>5</v>
-      </c>
-      <c r="AJ18">
-        <v>18</v>
-      </c>
-      <c r="AV18">
-        <v>100</v>
-      </c>
-      <c r="AX18">
-        <v>0</v>
-      </c>
-      <c r="BB18">
-        <v>100</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="S18" s="8">
+        <v>0.62</v>
+      </c>
+      <c r="T18" s="8">
+        <v>0</v>
+      </c>
+      <c r="U18" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="V18" s="8">
+        <v>0</v>
+      </c>
+      <c r="W18" s="8">
+        <v>0</v>
+      </c>
+      <c r="X18" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="AH18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AI18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="AK18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="8">
+        <v>1</v>
+      </c>
+      <c r="AW18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="8"/>
+      <c r="AZ18" s="8"/>
+      <c r="BA18" s="8"/>
+      <c r="BB18" s="8"/>
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" t="s">
         <v>41</v>
       </c>
-      <c r="E19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" t="s">
-        <v>42</v>
-      </c>
-      <c r="L19" s="3">
+      <c r="L19" s="7">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="M19" t="s">
+        <v>140</v>
+      </c>
+      <c r="O19" t="s">
         <v>142</v>
-      </c>
-      <c r="O19" t="s">
-        <v>144</v>
       </c>
       <c r="P19">
         <v>364</v>
@@ -2537,57 +4236,133 @@
         <v>154</v>
       </c>
       <c r="R19" t="s">
-        <v>163</v>
-      </c>
-      <c r="S19">
-        <v>43</v>
-      </c>
-      <c r="U19">
-        <v>23</v>
-      </c>
-      <c r="AH19">
-        <v>4</v>
-      </c>
-      <c r="AI19">
-        <v>8</v>
-      </c>
-      <c r="AJ19">
-        <v>22</v>
-      </c>
-      <c r="AK19">
-        <v>100</v>
-      </c>
-      <c r="AX19">
-        <v>100</v>
-      </c>
-      <c r="BB19">
-        <v>100</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="S19" s="8">
+        <v>0.43</v>
+      </c>
+      <c r="T19" s="8">
+        <v>0</v>
+      </c>
+      <c r="U19" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="V19" s="8">
+        <v>0</v>
+      </c>
+      <c r="W19" s="8">
+        <v>0</v>
+      </c>
+      <c r="X19" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="AI19" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="AJ19" s="8">
+        <v>0.22</v>
+      </c>
+      <c r="AK19" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY19" s="8"/>
+      <c r="AZ19" s="8"/>
+      <c r="BA19" s="8"/>
+      <c r="BB19" s="8"/>
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E20" t="s">
-        <v>165</v>
-      </c>
-      <c r="L20" s="3">
+        <v>163</v>
+      </c>
+      <c r="L20" s="7">
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="M20" t="s">
+        <v>140</v>
+      </c>
+      <c r="O20" t="s">
         <v>142</v>
-      </c>
-      <c r="O20" t="s">
-        <v>144</v>
       </c>
       <c r="P20">
         <v>78</v>
@@ -2596,78 +4371,136 @@
         <v>494</v>
       </c>
       <c r="R20" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA20">
-        <v>100</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
-        <v>4</v>
-      </c>
-      <c r="AM20">
-        <v>19</v>
-      </c>
-      <c r="AN20">
-        <v>28</v>
-      </c>
-      <c r="AO20">
-        <v>8</v>
-      </c>
-      <c r="AP20">
-        <v>4</v>
-      </c>
-      <c r="AQ20">
-        <v>3</v>
-      </c>
-      <c r="AR20">
-        <v>22</v>
-      </c>
-      <c r="AS20">
+        <v>143</v>
+      </c>
+      <c r="S20" s="8">
+        <v>0</v>
+      </c>
+      <c r="T20" s="8">
+        <v>0</v>
+      </c>
+      <c r="U20" s="8">
+        <v>0</v>
+      </c>
+      <c r="V20" s="8">
+        <v>0</v>
+      </c>
+      <c r="W20" s="8">
+        <v>0</v>
+      </c>
+      <c r="X20" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="8">
         <v>1</v>
       </c>
-      <c r="AT20">
-        <v>4</v>
-      </c>
-      <c r="AU20">
-        <v>1</v>
-      </c>
-      <c r="AX20">
-        <v>6</v>
-      </c>
-      <c r="BB20">
-        <v>100</v>
-      </c>
+      <c r="AB20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="AM20" s="8">
+        <v>0.19</v>
+      </c>
+      <c r="AN20" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AO20" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="AP20" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="AQ20" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="AR20" s="8">
+        <v>0.22</v>
+      </c>
+      <c r="AS20" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="AT20" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="AU20" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="AV20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="AY20" s="8"/>
+      <c r="AZ20" s="8"/>
+      <c r="BA20" s="8"/>
+      <c r="BB20" s="8"/>
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s">
-        <v>166</v>
-      </c>
-      <c r="J21">
+        <v>164</v>
+      </c>
+      <c r="J21" s="5">
         <v>46752</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="7">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="M21" t="s">
+        <v>140</v>
+      </c>
+      <c r="O21" t="s">
         <v>142</v>
-      </c>
-      <c r="O21" t="s">
-        <v>144</v>
       </c>
       <c r="P21">
         <v>8</v>
@@ -2676,51 +4509,144 @@
         <v>208</v>
       </c>
       <c r="R21" t="s">
-        <v>145</v>
-      </c>
-      <c r="AJ21">
-        <v>100</v>
-      </c>
-      <c r="AX21">
-        <v>100</v>
-      </c>
-      <c r="AZ21">
-        <v>50</v>
-      </c>
-      <c r="BA21">
-        <v>50</v>
-      </c>
-      <c r="BB21">
+        <v>143</v>
+      </c>
+      <c r="S21" s="8">
+        <v>0</v>
+      </c>
+      <c r="T21" s="8">
+        <v>0</v>
+      </c>
+      <c r="U21" s="8">
+        <v>0</v>
+      </c>
+      <c r="V21" s="8">
+        <v>0</v>
+      </c>
+      <c r="W21" s="8">
+        <v>0</v>
+      </c>
+      <c r="X21" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="BA21" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="BB21" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E22" t="s">
-        <v>167</v>
-      </c>
-      <c r="J22">
+        <v>165</v>
+      </c>
+      <c r="J22" s="5">
         <v>46752</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="7">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="M22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P22">
         <v>8</v>
@@ -2729,48 +4655,141 @@
         <v>208</v>
       </c>
       <c r="R22" t="s">
-        <v>145</v>
-      </c>
-      <c r="AJ22">
-        <v>100</v>
-      </c>
-      <c r="AX22">
-        <v>100</v>
-      </c>
-      <c r="AZ22">
-        <v>50</v>
-      </c>
-      <c r="BA22">
-        <v>50</v>
-      </c>
-      <c r="BB22">
+        <v>143</v>
+      </c>
+      <c r="S22" s="8">
+        <v>0</v>
+      </c>
+      <c r="T22" s="8">
+        <v>0</v>
+      </c>
+      <c r="U22" s="8">
+        <v>0</v>
+      </c>
+      <c r="V22" s="8">
+        <v>0</v>
+      </c>
+      <c r="W22" s="8">
+        <v>0</v>
+      </c>
+      <c r="X22" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX22" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="BA22" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="BB22" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>168</v>
-      </c>
-      <c r="L23" s="3">
+        <v>166</v>
+      </c>
+      <c r="L23" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="M23" t="s">
+        <v>140</v>
+      </c>
+      <c r="O23" t="s">
         <v>142</v>
-      </c>
-      <c r="O23" t="s">
-        <v>144</v>
       </c>
       <c r="P23">
         <v>2202</v>
@@ -2779,81 +4798,133 @@
         <v>277</v>
       </c>
       <c r="R23" t="s">
-        <v>145</v>
-      </c>
-      <c r="S23">
-        <v>63</v>
-      </c>
-      <c r="T23">
-        <v>10</v>
-      </c>
-      <c r="V23">
-        <v>4</v>
-      </c>
-      <c r="Z23">
-        <v>5</v>
-      </c>
-      <c r="AJ23">
-        <v>18</v>
-      </c>
-      <c r="AL23">
-        <v>7</v>
-      </c>
-      <c r="AM23">
-        <v>13</v>
-      </c>
-      <c r="AN23">
-        <v>6</v>
-      </c>
-      <c r="AO23">
-        <v>23</v>
-      </c>
-      <c r="AP23">
-        <v>15</v>
-      </c>
-      <c r="AQ23">
-        <v>10</v>
-      </c>
-      <c r="AR23">
-        <v>12</v>
-      </c>
-      <c r="AT23">
-        <v>1</v>
-      </c>
-      <c r="AU23">
-        <v>3</v>
-      </c>
-      <c r="AX23">
-        <v>10</v>
-      </c>
-      <c r="BB23">
-        <v>100</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="S23" s="8">
+        <v>0.63</v>
+      </c>
+      <c r="T23" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="U23" s="8">
+        <v>0</v>
+      </c>
+      <c r="V23" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="W23" s="8">
+        <v>0</v>
+      </c>
+      <c r="X23" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AA23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="AK23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AM23" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="AN23" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="AO23" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="AP23" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="AQ23" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AR23" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="AS23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="AU23" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="AV23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX23" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AY23" s="8"/>
+      <c r="AZ23" s="8"/>
+      <c r="BA23" s="8"/>
+      <c r="BB23" s="8"/>
     </row>
     <row r="24" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s">
-        <v>169</v>
-      </c>
-      <c r="L24" s="3">
+        <v>167</v>
+      </c>
+      <c r="L24" s="7">
         <v>2.8E-3</v>
       </c>
       <c r="M24" t="s">
+        <v>140</v>
+      </c>
+      <c r="O24" t="s">
         <v>142</v>
-      </c>
-      <c r="O24" t="s">
-        <v>144</v>
       </c>
       <c r="P24">
         <v>3265</v>
@@ -2862,75 +4933,133 @@
         <v>560</v>
       </c>
       <c r="R24" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA24">
-        <v>100</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AL24">
-        <v>4</v>
-      </c>
-      <c r="AM24">
-        <v>18</v>
-      </c>
-      <c r="AN24">
-        <v>27</v>
-      </c>
-      <c r="AO24">
-        <v>8</v>
-      </c>
-      <c r="AP24">
-        <v>4</v>
-      </c>
-      <c r="AQ24">
-        <v>2</v>
-      </c>
-      <c r="AR24">
-        <v>22</v>
-      </c>
-      <c r="AS24">
+        <v>143</v>
+      </c>
+      <c r="S24" s="8">
+        <v>0</v>
+      </c>
+      <c r="T24" s="8">
+        <v>0</v>
+      </c>
+      <c r="U24" s="8">
+        <v>0</v>
+      </c>
+      <c r="V24" s="8">
+        <v>0</v>
+      </c>
+      <c r="W24" s="8">
+        <v>0</v>
+      </c>
+      <c r="X24" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="8">
         <v>1</v>
       </c>
-      <c r="AT24">
-        <v>5</v>
-      </c>
-      <c r="AU24">
-        <v>2</v>
-      </c>
-      <c r="AX24">
-        <v>7</v>
-      </c>
-      <c r="BB24">
-        <v>100</v>
-      </c>
+      <c r="AB24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="AM24" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="AN24" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="AO24" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="AP24" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="AQ24" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="AR24" s="8">
+        <v>0.22</v>
+      </c>
+      <c r="AS24" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="AT24" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AU24" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="AV24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX24" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AY24" s="8"/>
+      <c r="AZ24" s="8"/>
+      <c r="BA24" s="8"/>
+      <c r="BB24" s="8"/>
     </row>
     <row r="25" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E25" t="s">
-        <v>170</v>
-      </c>
-      <c r="L25" s="3">
+        <v>168</v>
+      </c>
+      <c r="L25" s="7">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="M25" t="s">
+        <v>140</v>
+      </c>
+      <c r="O25" t="s">
         <v>142</v>
-      </c>
-      <c r="O25" t="s">
-        <v>144</v>
       </c>
       <c r="P25">
         <v>494</v>
@@ -2939,48 +5068,141 @@
         <v>49</v>
       </c>
       <c r="R25" t="s">
-        <v>163</v>
-      </c>
-      <c r="S25">
-        <v>83</v>
-      </c>
-      <c r="AJ25">
-        <v>17</v>
-      </c>
-      <c r="AK25">
-        <v>100</v>
-      </c>
-      <c r="AX25">
-        <v>100</v>
-      </c>
-      <c r="BB25">
-        <v>100</v>
+        <v>161</v>
+      </c>
+      <c r="S25" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="T25" s="8">
+        <v>0</v>
+      </c>
+      <c r="U25" s="8">
+        <v>0</v>
+      </c>
+      <c r="V25" s="8">
+        <v>0</v>
+      </c>
+      <c r="W25" s="8">
+        <v>0</v>
+      </c>
+      <c r="X25" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="8">
+        <v>0.17</v>
+      </c>
+      <c r="AK25" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX25" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ25" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA25" s="8">
+        <v>0</v>
+      </c>
+      <c r="BB25" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" t="s">
         <v>108</v>
       </c>
-      <c r="C26" t="s">
-        <v>109</v>
-      </c>
-      <c r="D26" t="s">
-        <v>110</v>
-      </c>
       <c r="E26" t="s">
-        <v>171</v>
-      </c>
-      <c r="L26" s="3">
+        <v>169</v>
+      </c>
+      <c r="L26" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="M26" t="s">
+        <v>140</v>
+      </c>
+      <c r="O26" t="s">
         <v>142</v>
-      </c>
-      <c r="O26" t="s">
-        <v>144</v>
       </c>
       <c r="P26">
         <v>140</v>
@@ -2989,383 +5211,3065 @@
         <v>72</v>
       </c>
       <c r="R26" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y26">
-        <v>20</v>
-      </c>
-      <c r="Z26">
-        <v>17</v>
-      </c>
-      <c r="AC26">
-        <v>18</v>
-      </c>
-      <c r="AI26">
-        <v>21</v>
-      </c>
-      <c r="AJ26">
-        <v>24</v>
-      </c>
-      <c r="AS26">
-        <v>100</v>
-      </c>
-      <c r="AX26">
-        <v>0</v>
-      </c>
-      <c r="BB26">
-        <v>100</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="S26" s="8">
+        <v>0</v>
+      </c>
+      <c r="T26" s="8">
+        <v>0</v>
+      </c>
+      <c r="U26" s="8">
+        <v>0</v>
+      </c>
+      <c r="V26" s="8">
+        <v>0</v>
+      </c>
+      <c r="W26" s="8">
+        <v>0</v>
+      </c>
+      <c r="X26" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="Z26" s="8">
+        <v>0.17</v>
+      </c>
+      <c r="AA26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="AD26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="AJ26" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="AK26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="8">
+        <v>1</v>
+      </c>
+      <c r="AT26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="8"/>
+      <c r="AZ26" s="8"/>
+      <c r="BA26" s="8"/>
+      <c r="BB26" s="8"/>
     </row>
     <row r="27" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>109</v>
+      </c>
+      <c r="E27" t="s">
+        <v>109</v>
       </c>
       <c r="H27" t="s">
-        <v>174</v>
-      </c>
-      <c r="I27">
+        <v>172</v>
+      </c>
+      <c r="I27" s="9">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="5">
         <v>46248</v>
       </c>
-      <c r="L27" s="3"/>
-      <c r="W27">
-        <v>100</v>
-      </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AX27">
-        <v>100</v>
-      </c>
-      <c r="BB27">
-        <v>100</v>
+      <c r="L27" s="7"/>
+      <c r="S27" s="8">
+        <v>0</v>
+      </c>
+      <c r="T27" s="8">
+        <v>0</v>
+      </c>
+      <c r="U27" s="8">
+        <v>0</v>
+      </c>
+      <c r="V27" s="8">
+        <v>0</v>
+      </c>
+      <c r="W27" s="8">
+        <v>1</v>
+      </c>
+      <c r="X27" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX27" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA27" s="8">
+        <v>0</v>
+      </c>
+      <c r="BB27" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D28" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="E28" t="s">
+        <v>110</v>
       </c>
       <c r="H28" t="s">
-        <v>160</v>
-      </c>
-      <c r="I28">
+        <v>158</v>
+      </c>
+      <c r="I28" s="9">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="5">
         <v>46063</v>
       </c>
-      <c r="L28" s="3"/>
-      <c r="W28">
-        <v>100</v>
-      </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
-      <c r="AX28">
-        <v>100</v>
-      </c>
-      <c r="BB28">
-        <v>100</v>
+      <c r="L28" s="7"/>
+      <c r="S28" s="8">
+        <v>0</v>
+      </c>
+      <c r="T28" s="8">
+        <v>0</v>
+      </c>
+      <c r="U28" s="8">
+        <v>0</v>
+      </c>
+      <c r="V28" s="8">
+        <v>0</v>
+      </c>
+      <c r="W28" s="8">
+        <v>1</v>
+      </c>
+      <c r="X28" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX28" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA28" s="8">
+        <v>0</v>
+      </c>
+      <c r="BB28" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+      <c r="E29" t="s">
+        <v>111</v>
       </c>
       <c r="H29" t="s">
-        <v>174</v>
-      </c>
-      <c r="I29">
+        <v>172</v>
+      </c>
+      <c r="I29" s="9">
         <v>2.375E-2</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="5">
         <v>46531</v>
       </c>
-      <c r="L29" s="3"/>
-      <c r="AJ29">
-        <v>100</v>
-      </c>
-      <c r="AX29">
-        <v>100</v>
-      </c>
-      <c r="BB29">
-        <v>100</v>
+      <c r="L29" s="7"/>
+      <c r="S29" s="8">
+        <v>0</v>
+      </c>
+      <c r="T29" s="8">
+        <v>0</v>
+      </c>
+      <c r="U29" s="8">
+        <v>0</v>
+      </c>
+      <c r="V29" s="8">
+        <v>0</v>
+      </c>
+      <c r="W29" s="8">
+        <v>0</v>
+      </c>
+      <c r="X29" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX29" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ29" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA29" s="8">
+        <v>0</v>
+      </c>
+      <c r="BB29" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>112</v>
+      </c>
+      <c r="E30" t="s">
+        <v>112</v>
       </c>
       <c r="H30" t="s">
-        <v>176</v>
-      </c>
-      <c r="I30">
+        <v>174</v>
+      </c>
+      <c r="I30" s="9">
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="5">
         <v>46066</v>
       </c>
-      <c r="L30" s="3"/>
-      <c r="AC30">
-        <v>100</v>
-      </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
-      <c r="AX30">
-        <v>100</v>
-      </c>
-      <c r="BB30">
-        <v>100</v>
+      <c r="L30" s="7"/>
+      <c r="S30" s="8">
+        <v>0</v>
+      </c>
+      <c r="T30" s="8">
+        <v>0</v>
+      </c>
+      <c r="U30" s="8">
+        <v>0</v>
+      </c>
+      <c r="V30" s="8">
+        <v>0</v>
+      </c>
+      <c r="W30" s="8">
+        <v>0</v>
+      </c>
+      <c r="X30" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX30" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ30" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA30" s="8">
+        <v>0</v>
+      </c>
+      <c r="BB30" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>113</v>
+      </c>
+      <c r="E31" t="s">
+        <v>113</v>
       </c>
       <c r="H31" t="s">
-        <v>174</v>
-      </c>
-      <c r="I31">
+        <v>172</v>
+      </c>
+      <c r="I31" s="9">
         <v>3.7499999999999999E-3</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="5">
         <v>46599</v>
       </c>
-      <c r="L31" s="3"/>
-      <c r="S31">
-        <v>100</v>
-      </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
-      <c r="AX31">
-        <v>100</v>
-      </c>
-      <c r="BB31">
-        <v>100</v>
+      <c r="L31" s="7"/>
+      <c r="S31" s="8">
+        <v>1</v>
+      </c>
+      <c r="T31" s="8">
+        <v>0</v>
+      </c>
+      <c r="U31" s="8">
+        <v>0</v>
+      </c>
+      <c r="V31" s="8">
+        <v>0</v>
+      </c>
+      <c r="W31" s="8">
+        <v>0</v>
+      </c>
+      <c r="X31" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX31" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ31" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA31" s="8">
+        <v>0</v>
+      </c>
+      <c r="BB31" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D32" t="s">
-        <v>116</v>
+        <v>114</v>
+      </c>
+      <c r="E32" t="s">
+        <v>114</v>
       </c>
       <c r="H32" t="s">
-        <v>175</v>
-      </c>
-      <c r="I32">
+        <v>173</v>
+      </c>
+      <c r="I32" s="9">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="5">
         <v>46888</v>
       </c>
-      <c r="L32" s="3"/>
-      <c r="AD32">
-        <v>100</v>
-      </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
-      <c r="AX32">
-        <v>100</v>
-      </c>
-      <c r="BB32">
-        <v>100</v>
+      <c r="L32" s="7"/>
+      <c r="S32" s="8">
+        <v>0</v>
+      </c>
+      <c r="T32" s="8">
+        <v>0</v>
+      </c>
+      <c r="U32" s="8">
+        <v>0</v>
+      </c>
+      <c r="V32" s="8">
+        <v>0</v>
+      </c>
+      <c r="W32" s="8">
+        <v>0</v>
+      </c>
+      <c r="X32" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX32" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ32" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA32" s="8">
+        <v>0</v>
+      </c>
+      <c r="BB32" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>117</v>
+        <v>115</v>
+      </c>
+      <c r="E33" t="s">
+        <v>115</v>
       </c>
       <c r="H33" t="s">
-        <v>175</v>
-      </c>
-      <c r="I33">
+        <v>173</v>
+      </c>
+      <c r="I33" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="5">
         <v>46157</v>
       </c>
-      <c r="L33" s="3"/>
-      <c r="AD33">
-        <v>100</v>
-      </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
-      <c r="AX33">
-        <v>100</v>
-      </c>
-      <c r="BB33">
-        <v>100</v>
+      <c r="L33" s="7"/>
+      <c r="S33" s="8">
+        <v>0</v>
+      </c>
+      <c r="T33" s="8">
+        <v>0</v>
+      </c>
+      <c r="U33" s="8">
+        <v>0</v>
+      </c>
+      <c r="V33" s="8">
+        <v>0</v>
+      </c>
+      <c r="W33" s="8">
+        <v>0</v>
+      </c>
+      <c r="X33" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX33" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ33" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA33" s="8">
+        <v>0</v>
+      </c>
+      <c r="BB33" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>126</v>
-      </c>
-      <c r="L34" s="3"/>
-      <c r="AC34">
-        <v>50</v>
-      </c>
-      <c r="AI34">
-        <v>50</v>
-      </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
-      <c r="AX34">
-        <v>100</v>
-      </c>
-      <c r="AZ34">
-        <v>50</v>
-      </c>
-      <c r="BA34">
-        <v>50</v>
-      </c>
-      <c r="BB34">
+        <v>124</v>
+      </c>
+      <c r="E34" t="s">
+        <v>124</v>
+      </c>
+      <c r="L34" s="7"/>
+      <c r="S34" s="8">
+        <v>0</v>
+      </c>
+      <c r="T34" s="8">
+        <v>0</v>
+      </c>
+      <c r="U34" s="8">
+        <v>0</v>
+      </c>
+      <c r="V34" s="8">
+        <v>0</v>
+      </c>
+      <c r="W34" s="8">
+        <v>0</v>
+      </c>
+      <c r="X34" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AD34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AJ34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX34" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ34" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="BA34" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="BB34" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D35" t="s">
-        <v>130</v>
-      </c>
-      <c r="L35" s="3"/>
-      <c r="AC35">
-        <v>50</v>
-      </c>
-      <c r="AI35">
-        <v>50</v>
-      </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
-      <c r="AX35">
-        <v>100</v>
-      </c>
-      <c r="AZ35">
-        <v>50</v>
-      </c>
-      <c r="BA35">
-        <v>50</v>
-      </c>
-      <c r="BB35">
+        <v>128</v>
+      </c>
+      <c r="E35" t="s">
+        <v>128</v>
+      </c>
+      <c r="L35" s="7"/>
+      <c r="S35" s="8">
+        <v>0</v>
+      </c>
+      <c r="T35" s="8">
+        <v>0</v>
+      </c>
+      <c r="U35" s="8">
+        <v>0</v>
+      </c>
+      <c r="V35" s="8">
+        <v>0</v>
+      </c>
+      <c r="W35" s="8">
+        <v>0</v>
+      </c>
+      <c r="X35" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AD35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AJ35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX35" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ35" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="BA35" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="BB35" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>133</v>
-      </c>
-      <c r="L36" s="3"/>
-      <c r="S36">
-        <v>60</v>
-      </c>
-      <c r="AJ36">
-        <v>40</v>
-      </c>
-      <c r="AX36">
-        <v>100</v>
-      </c>
-      <c r="BA36">
-        <v>100</v>
-      </c>
-      <c r="BB36">
-        <v>0</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="E36" t="s">
+        <v>131</v>
+      </c>
+      <c r="L36" s="7"/>
+      <c r="S36" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="T36" s="8">
+        <v>0</v>
+      </c>
+      <c r="U36" s="8">
+        <v>0</v>
+      </c>
+      <c r="V36" s="8">
+        <v>0</v>
+      </c>
+      <c r="W36" s="8">
+        <v>0</v>
+      </c>
+      <c r="X36" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="AK36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX36" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ36" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA36" s="8">
+        <v>1</v>
+      </c>
+      <c r="BB36" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="3"/>
+      <c r="AM38" s="3"/>
+      <c r="AN38" s="3"/>
+      <c r="AO38" s="3"/>
+      <c r="AP38" s="3"/>
+      <c r="AQ38" s="3"/>
+      <c r="AR38" s="3"/>
+      <c r="AS38" s="3"/>
+      <c r="AT38" s="3"/>
+      <c r="AU38" s="3"/>
+      <c r="AV38" s="3"/>
+      <c r="AW38" s="3"/>
+      <c r="AX38" s="3"/>
+      <c r="AY38" s="3"/>
+      <c r="AZ38" s="3"/>
+      <c r="BA38" s="3"/>
+      <c r="BB38" s="3"/>
+    </row>
+    <row r="39" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+      <c r="AH39" s="3"/>
+      <c r="AI39" s="3"/>
+      <c r="AJ39" s="3"/>
+      <c r="AK39" s="3"/>
+      <c r="AL39" s="3"/>
+      <c r="AM39" s="3"/>
+      <c r="AN39" s="3"/>
+      <c r="AO39" s="3"/>
+      <c r="AP39" s="3"/>
+      <c r="AQ39" s="3"/>
+      <c r="AR39" s="3"/>
+      <c r="AS39" s="3"/>
+      <c r="AT39" s="3"/>
+      <c r="AU39" s="3"/>
+      <c r="AV39" s="3"/>
+      <c r="AW39" s="3"/>
+      <c r="AX39" s="3"/>
+      <c r="AY39" s="3"/>
+      <c r="AZ39" s="3"/>
+      <c r="BA39" s="3"/>
+      <c r="BB39" s="3"/>
+    </row>
+    <row r="40" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3"/>
+      <c r="AI40" s="3"/>
+      <c r="AJ40" s="3"/>
+      <c r="AK40" s="3"/>
+      <c r="AL40" s="3"/>
+      <c r="AM40" s="3"/>
+      <c r="AN40" s="3"/>
+      <c r="AO40" s="3"/>
+      <c r="AP40" s="3"/>
+      <c r="AQ40" s="3"/>
+      <c r="AR40" s="3"/>
+      <c r="AS40" s="3"/>
+      <c r="AT40" s="3"/>
+      <c r="AU40" s="3"/>
+      <c r="AV40" s="3"/>
+      <c r="AW40" s="3"/>
+      <c r="AX40" s="3"/>
+      <c r="AY40" s="3"/>
+      <c r="AZ40" s="3"/>
+      <c r="BA40" s="3"/>
+      <c r="BB40" s="3"/>
+    </row>
+    <row r="41" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="3"/>
+      <c r="AG41" s="3"/>
+      <c r="AH41" s="3"/>
+      <c r="AI41" s="3"/>
+      <c r="AJ41" s="3"/>
+      <c r="AK41" s="3"/>
+      <c r="AL41" s="3"/>
+      <c r="AM41" s="3"/>
+      <c r="AN41" s="3"/>
+      <c r="AO41" s="3"/>
+      <c r="AP41" s="3"/>
+      <c r="AQ41" s="3"/>
+      <c r="AR41" s="3"/>
+      <c r="AS41" s="3"/>
+      <c r="AT41" s="3"/>
+      <c r="AU41" s="3"/>
+      <c r="AV41" s="3"/>
+      <c r="AW41" s="3"/>
+      <c r="AX41" s="3"/>
+      <c r="AY41" s="3"/>
+      <c r="AZ41" s="3"/>
+      <c r="BA41" s="3"/>
+      <c r="BB41" s="3"/>
+    </row>
+    <row r="42" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="3"/>
+      <c r="AG42" s="3"/>
+      <c r="AH42" s="3"/>
+      <c r="AI42" s="3"/>
+      <c r="AJ42" s="3"/>
+      <c r="AK42" s="3"/>
+      <c r="AL42" s="3"/>
+      <c r="AM42" s="3"/>
+      <c r="AN42" s="3"/>
+      <c r="AO42" s="3"/>
+      <c r="AP42" s="3"/>
+      <c r="AQ42" s="3"/>
+      <c r="AR42" s="3"/>
+      <c r="AS42" s="3"/>
+      <c r="AT42" s="3"/>
+      <c r="AU42" s="3"/>
+      <c r="AV42" s="3"/>
+      <c r="AW42" s="3"/>
+      <c r="AX42" s="3"/>
+      <c r="AY42" s="3"/>
+      <c r="AZ42" s="3"/>
+      <c r="BA42" s="3"/>
+      <c r="BB42" s="3"/>
+    </row>
+    <row r="43" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3"/>
+      <c r="AF43" s="3"/>
+      <c r="AG43" s="3"/>
+      <c r="AH43" s="3"/>
+      <c r="AI43" s="3"/>
+      <c r="AJ43" s="3"/>
+      <c r="AK43" s="3"/>
+      <c r="AL43" s="3"/>
+      <c r="AM43" s="3"/>
+      <c r="AN43" s="3"/>
+      <c r="AO43" s="3"/>
+      <c r="AP43" s="3"/>
+      <c r="AQ43" s="3"/>
+      <c r="AR43" s="3"/>
+      <c r="AS43" s="3"/>
+      <c r="AT43" s="3"/>
+      <c r="AU43" s="3"/>
+      <c r="AV43" s="3"/>
+      <c r="AW43" s="3"/>
+      <c r="AX43" s="3"/>
+      <c r="AY43" s="3"/>
+      <c r="AZ43" s="3"/>
+      <c r="BA43" s="3"/>
+      <c r="BB43" s="3"/>
+    </row>
+    <row r="44" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3"/>
+      <c r="AF44" s="3"/>
+      <c r="AG44" s="3"/>
+      <c r="AH44" s="3"/>
+      <c r="AI44" s="3"/>
+      <c r="AJ44" s="3"/>
+      <c r="AK44" s="3"/>
+      <c r="AL44" s="3"/>
+      <c r="AM44" s="3"/>
+      <c r="AN44" s="3"/>
+      <c r="AO44" s="3"/>
+      <c r="AP44" s="3"/>
+      <c r="AQ44" s="3"/>
+      <c r="AR44" s="3"/>
+      <c r="AS44" s="3"/>
+      <c r="AT44" s="3"/>
+      <c r="AU44" s="3"/>
+      <c r="AV44" s="3"/>
+      <c r="AW44" s="3"/>
+      <c r="AX44" s="3"/>
+      <c r="AY44" s="3"/>
+      <c r="AZ44" s="3"/>
+      <c r="BA44" s="3"/>
+      <c r="BB44" s="3"/>
+    </row>
+    <row r="45" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="3"/>
+      <c r="AG45" s="3"/>
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="3"/>
+      <c r="AJ45" s="3"/>
+      <c r="AK45" s="3"/>
+      <c r="AL45" s="3"/>
+      <c r="AM45" s="3"/>
+      <c r="AN45" s="3"/>
+      <c r="AO45" s="3"/>
+      <c r="AP45" s="3"/>
+      <c r="AQ45" s="3"/>
+      <c r="AR45" s="3"/>
+      <c r="AS45" s="3"/>
+      <c r="AT45" s="3"/>
+      <c r="AU45" s="3"/>
+      <c r="AV45" s="3"/>
+      <c r="AW45" s="3"/>
+      <c r="AX45" s="3"/>
+      <c r="AY45" s="3"/>
+      <c r="AZ45" s="3"/>
+      <c r="BA45" s="3"/>
+      <c r="BB45" s="3"/>
+    </row>
+    <row r="46" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+      <c r="AC46" s="3"/>
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3"/>
+      <c r="AF46" s="3"/>
+      <c r="AG46" s="3"/>
+      <c r="AH46" s="3"/>
+      <c r="AI46" s="3"/>
+      <c r="AJ46" s="3"/>
+      <c r="AK46" s="3"/>
+      <c r="AL46" s="3"/>
+      <c r="AM46" s="3"/>
+      <c r="AN46" s="3"/>
+      <c r="AO46" s="3"/>
+      <c r="AP46" s="3"/>
+      <c r="AQ46" s="3"/>
+      <c r="AR46" s="3"/>
+      <c r="AS46" s="3"/>
+      <c r="AT46" s="3"/>
+      <c r="AU46" s="3"/>
+      <c r="AV46" s="3"/>
+      <c r="AW46" s="3"/>
+      <c r="AX46" s="3"/>
+      <c r="AY46" s="3"/>
+      <c r="AZ46" s="3"/>
+      <c r="BA46" s="3"/>
+      <c r="BB46" s="3"/>
+    </row>
+    <row r="47" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="3"/>
+      <c r="AF47" s="3"/>
+      <c r="AG47" s="3"/>
+      <c r="AH47" s="3"/>
+      <c r="AI47" s="3"/>
+      <c r="AJ47" s="3"/>
+      <c r="AK47" s="3"/>
+      <c r="AL47" s="3"/>
+      <c r="AM47" s="3"/>
+      <c r="AN47" s="3"/>
+      <c r="AO47" s="3"/>
+      <c r="AP47" s="3"/>
+      <c r="AQ47" s="3"/>
+      <c r="AR47" s="3"/>
+      <c r="AS47" s="3"/>
+      <c r="AT47" s="3"/>
+      <c r="AU47" s="3"/>
+      <c r="AV47" s="3"/>
+      <c r="AW47" s="3"/>
+      <c r="AX47" s="3"/>
+      <c r="AY47" s="3"/>
+      <c r="AZ47" s="3"/>
+      <c r="BA47" s="3"/>
+      <c r="BB47" s="3"/>
+    </row>
+    <row r="48" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="3"/>
+      <c r="AF48" s="3"/>
+      <c r="AG48" s="3"/>
+      <c r="AH48" s="3"/>
+      <c r="AI48" s="3"/>
+      <c r="AJ48" s="3"/>
+      <c r="AK48" s="3"/>
+      <c r="AL48" s="3"/>
+      <c r="AM48" s="3"/>
+      <c r="AN48" s="3"/>
+      <c r="AO48" s="3"/>
+      <c r="AP48" s="3"/>
+      <c r="AQ48" s="3"/>
+      <c r="AR48" s="3"/>
+      <c r="AS48" s="3"/>
+      <c r="AT48" s="3"/>
+      <c r="AU48" s="3"/>
+      <c r="AV48" s="3"/>
+      <c r="AW48" s="3"/>
+      <c r="AX48" s="3"/>
+      <c r="AY48" s="3"/>
+      <c r="AZ48" s="3"/>
+      <c r="BA48" s="3"/>
+      <c r="BB48" s="3"/>
+    </row>
+    <row r="49" spans="19:54" x14ac:dyDescent="0.35">
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="3"/>
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3"/>
+      <c r="AF49" s="3"/>
+      <c r="AG49" s="3"/>
+      <c r="AH49" s="3"/>
+      <c r="AI49" s="3"/>
+      <c r="AJ49" s="3"/>
+      <c r="AK49" s="3"/>
+      <c r="AL49" s="3"/>
+      <c r="AM49" s="3"/>
+      <c r="AN49" s="3"/>
+      <c r="AO49" s="3"/>
+      <c r="AP49" s="3"/>
+      <c r="AQ49" s="3"/>
+      <c r="AR49" s="3"/>
+      <c r="AS49" s="3"/>
+      <c r="AT49" s="3"/>
+      <c r="AU49" s="3"/>
+      <c r="AV49" s="3"/>
+      <c r="AW49" s="3"/>
+      <c r="AX49" s="3"/>
+      <c r="AY49" s="3"/>
+      <c r="AZ49" s="3"/>
+      <c r="BA49" s="3"/>
+      <c r="BB49" s="3"/>
+    </row>
+    <row r="50" spans="19:54" x14ac:dyDescent="0.35">
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="3"/>
+      <c r="AD50" s="3"/>
+      <c r="AE50" s="3"/>
+      <c r="AF50" s="3"/>
+      <c r="AG50" s="3"/>
+      <c r="AH50" s="3"/>
+      <c r="AI50" s="3"/>
+      <c r="AJ50" s="3"/>
+      <c r="AK50" s="3"/>
+      <c r="AL50" s="3"/>
+      <c r="AM50" s="3"/>
+      <c r="AN50" s="3"/>
+      <c r="AO50" s="3"/>
+      <c r="AP50" s="3"/>
+      <c r="AQ50" s="3"/>
+      <c r="AR50" s="3"/>
+      <c r="AS50" s="3"/>
+      <c r="AT50" s="3"/>
+      <c r="AU50" s="3"/>
+      <c r="AV50" s="3"/>
+      <c r="AW50" s="3"/>
+      <c r="AX50" s="3"/>
+      <c r="AY50" s="3"/>
+      <c r="AZ50" s="3"/>
+      <c r="BA50" s="3"/>
+      <c r="BB50" s="3"/>
+    </row>
+    <row r="51" spans="19:54" x14ac:dyDescent="0.35">
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
+      <c r="AB51" s="3"/>
+      <c r="AC51" s="3"/>
+      <c r="AD51" s="3"/>
+      <c r="AE51" s="3"/>
+      <c r="AF51" s="3"/>
+      <c r="AG51" s="3"/>
+      <c r="AH51" s="3"/>
+      <c r="AI51" s="3"/>
+      <c r="AJ51" s="3"/>
+      <c r="AK51" s="3"/>
+      <c r="AL51" s="3"/>
+      <c r="AM51" s="3"/>
+      <c r="AN51" s="3"/>
+      <c r="AO51" s="3"/>
+      <c r="AP51" s="3"/>
+      <c r="AQ51" s="3"/>
+      <c r="AR51" s="3"/>
+      <c r="AS51" s="3"/>
+      <c r="AT51" s="3"/>
+      <c r="AU51" s="3"/>
+      <c r="AV51" s="3"/>
+      <c r="AW51" s="3"/>
+      <c r="AX51" s="3"/>
+      <c r="AY51" s="3"/>
+      <c r="AZ51" s="3"/>
+      <c r="BA51" s="3"/>
+      <c r="BB51" s="3"/>
+    </row>
+    <row r="52" spans="19:54" x14ac:dyDescent="0.35">
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="3"/>
+      <c r="AC52" s="3"/>
+      <c r="AD52" s="3"/>
+      <c r="AE52" s="3"/>
+      <c r="AF52" s="3"/>
+      <c r="AG52" s="3"/>
+      <c r="AH52" s="3"/>
+      <c r="AI52" s="3"/>
+      <c r="AJ52" s="3"/>
+      <c r="AK52" s="3"/>
+      <c r="AL52" s="3"/>
+      <c r="AM52" s="3"/>
+      <c r="AN52" s="3"/>
+      <c r="AO52" s="3"/>
+      <c r="AP52" s="3"/>
+      <c r="AQ52" s="3"/>
+      <c r="AR52" s="3"/>
+      <c r="AS52" s="3"/>
+      <c r="AT52" s="3"/>
+      <c r="AU52" s="3"/>
+      <c r="AV52" s="3"/>
+      <c r="AW52" s="3"/>
+      <c r="AX52" s="3"/>
+      <c r="AY52" s="3"/>
+      <c r="AZ52" s="3"/>
+      <c r="BA52" s="3"/>
+      <c r="BB52" s="3"/>
+    </row>
+    <row r="53" spans="19:54" x14ac:dyDescent="0.35">
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="3"/>
+      <c r="AC53" s="3"/>
+      <c r="AD53" s="3"/>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3"/>
+      <c r="AG53" s="3"/>
+      <c r="AH53" s="3"/>
+      <c r="AI53" s="3"/>
+      <c r="AJ53" s="3"/>
+      <c r="AK53" s="3"/>
+      <c r="AL53" s="3"/>
+      <c r="AM53" s="3"/>
+      <c r="AN53" s="3"/>
+      <c r="AO53" s="3"/>
+      <c r="AP53" s="3"/>
+      <c r="AQ53" s="3"/>
+      <c r="AR53" s="3"/>
+      <c r="AS53" s="3"/>
+      <c r="AT53" s="3"/>
+      <c r="AU53" s="3"/>
+      <c r="AV53" s="3"/>
+      <c r="AW53" s="3"/>
+      <c r="AX53" s="3"/>
+      <c r="AY53" s="3"/>
+      <c r="AZ53" s="3"/>
+      <c r="BA53" s="3"/>
+      <c r="BB53" s="3"/>
+    </row>
+    <row r="54" spans="19:54" x14ac:dyDescent="0.35">
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="3"/>
+      <c r="AB54" s="3"/>
+      <c r="AC54" s="3"/>
+      <c r="AD54" s="3"/>
+      <c r="AE54" s="3"/>
+      <c r="AF54" s="3"/>
+      <c r="AG54" s="3"/>
+      <c r="AH54" s="3"/>
+      <c r="AI54" s="3"/>
+      <c r="AJ54" s="3"/>
+      <c r="AK54" s="3"/>
+      <c r="AL54" s="3"/>
+      <c r="AM54" s="3"/>
+      <c r="AN54" s="3"/>
+      <c r="AO54" s="3"/>
+      <c r="AP54" s="3"/>
+      <c r="AQ54" s="3"/>
+      <c r="AR54" s="3"/>
+      <c r="AS54" s="3"/>
+      <c r="AT54" s="3"/>
+      <c r="AU54" s="3"/>
+      <c r="AV54" s="3"/>
+      <c r="AW54" s="3"/>
+      <c r="AX54" s="3"/>
+      <c r="AY54" s="3"/>
+      <c r="AZ54" s="3"/>
+      <c r="BA54" s="3"/>
+      <c r="BB54" s="3"/>
+    </row>
+    <row r="55" spans="19:54" x14ac:dyDescent="0.35">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+      <c r="AG55" s="3"/>
+      <c r="AH55" s="3"/>
+      <c r="AI55" s="3"/>
+      <c r="AJ55" s="3"/>
+      <c r="AK55" s="3"/>
+      <c r="AL55" s="3"/>
+      <c r="AM55" s="3"/>
+      <c r="AN55" s="3"/>
+      <c r="AO55" s="3"/>
+      <c r="AP55" s="3"/>
+      <c r="AQ55" s="3"/>
+      <c r="AR55" s="3"/>
+      <c r="AS55" s="3"/>
+      <c r="AT55" s="3"/>
+      <c r="AU55" s="3"/>
+      <c r="AV55" s="3"/>
+      <c r="AW55" s="3"/>
+      <c r="AX55" s="3"/>
+      <c r="AY55" s="3"/>
+      <c r="AZ55" s="3"/>
+      <c r="BA55" s="3"/>
+      <c r="BB55" s="3"/>
+    </row>
+    <row r="56" spans="19:54" x14ac:dyDescent="0.35">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+      <c r="AG56" s="3"/>
+      <c r="AH56" s="3"/>
+      <c r="AI56" s="3"/>
+      <c r="AJ56" s="3"/>
+      <c r="AK56" s="3"/>
+      <c r="AL56" s="3"/>
+      <c r="AM56" s="3"/>
+      <c r="AN56" s="3"/>
+      <c r="AO56" s="3"/>
+      <c r="AP56" s="3"/>
+      <c r="AQ56" s="3"/>
+      <c r="AR56" s="3"/>
+      <c r="AS56" s="3"/>
+      <c r="AT56" s="3"/>
+      <c r="AU56" s="3"/>
+      <c r="AV56" s="3"/>
+      <c r="AW56" s="3"/>
+      <c r="AX56" s="3"/>
+      <c r="AY56" s="3"/>
+      <c r="AZ56" s="3"/>
+      <c r="BA56" s="3"/>
+      <c r="BB56" s="3"/>
+    </row>
+    <row r="57" spans="19:54" x14ac:dyDescent="0.35">
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
+      <c r="AB57" s="3"/>
+      <c r="AC57" s="3"/>
+      <c r="AD57" s="3"/>
+      <c r="AE57" s="3"/>
+      <c r="AF57" s="3"/>
+      <c r="AG57" s="3"/>
+      <c r="AH57" s="3"/>
+      <c r="AI57" s="3"/>
+      <c r="AJ57" s="3"/>
+      <c r="AK57" s="3"/>
+      <c r="AL57" s="3"/>
+      <c r="AM57" s="3"/>
+      <c r="AN57" s="3"/>
+      <c r="AO57" s="3"/>
+      <c r="AP57" s="3"/>
+      <c r="AQ57" s="3"/>
+      <c r="AR57" s="3"/>
+      <c r="AS57" s="3"/>
+      <c r="AT57" s="3"/>
+      <c r="AU57" s="3"/>
+      <c r="AV57" s="3"/>
+      <c r="AW57" s="3"/>
+      <c r="AX57" s="3"/>
+      <c r="AY57" s="3"/>
+      <c r="AZ57" s="3"/>
+      <c r="BA57" s="3"/>
+      <c r="BB57" s="3"/>
+    </row>
+    <row r="58" spans="19:54" x14ac:dyDescent="0.35">
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+      <c r="AA58" s="3"/>
+      <c r="AB58" s="3"/>
+      <c r="AC58" s="3"/>
+      <c r="AD58" s="3"/>
+      <c r="AE58" s="3"/>
+      <c r="AF58" s="3"/>
+      <c r="AG58" s="3"/>
+      <c r="AH58" s="3"/>
+      <c r="AI58" s="3"/>
+      <c r="AJ58" s="3"/>
+      <c r="AK58" s="3"/>
+      <c r="AL58" s="3"/>
+      <c r="AM58" s="3"/>
+      <c r="AN58" s="3"/>
+      <c r="AO58" s="3"/>
+      <c r="AP58" s="3"/>
+      <c r="AQ58" s="3"/>
+      <c r="AR58" s="3"/>
+      <c r="AS58" s="3"/>
+      <c r="AT58" s="3"/>
+      <c r="AU58" s="3"/>
+      <c r="AV58" s="3"/>
+      <c r="AW58" s="3"/>
+      <c r="AX58" s="3"/>
+      <c r="AY58" s="3"/>
+      <c r="AZ58" s="3"/>
+      <c r="BA58" s="3"/>
+      <c r="BB58" s="3"/>
+    </row>
+    <row r="59" spans="19:54" x14ac:dyDescent="0.35">
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="3"/>
+      <c r="AB59" s="3"/>
+      <c r="AC59" s="3"/>
+      <c r="AD59" s="3"/>
+      <c r="AE59" s="3"/>
+      <c r="AF59" s="3"/>
+      <c r="AG59" s="3"/>
+      <c r="AH59" s="3"/>
+      <c r="AI59" s="3"/>
+      <c r="AJ59" s="3"/>
+      <c r="AK59" s="3"/>
+      <c r="AL59" s="3"/>
+      <c r="AM59" s="3"/>
+      <c r="AN59" s="3"/>
+      <c r="AO59" s="3"/>
+      <c r="AP59" s="3"/>
+      <c r="AQ59" s="3"/>
+      <c r="AR59" s="3"/>
+      <c r="AS59" s="3"/>
+      <c r="AT59" s="3"/>
+      <c r="AU59" s="3"/>
+      <c r="AV59" s="3"/>
+      <c r="AW59" s="3"/>
+      <c r="AX59" s="3"/>
+      <c r="AY59" s="3"/>
+      <c r="AZ59" s="3"/>
+      <c r="BA59" s="3"/>
+      <c r="BB59" s="3"/>
+    </row>
+    <row r="60" spans="19:54" x14ac:dyDescent="0.35">
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+      <c r="AA60" s="3"/>
+      <c r="AB60" s="3"/>
+      <c r="AC60" s="3"/>
+      <c r="AD60" s="3"/>
+      <c r="AE60" s="3"/>
+      <c r="AF60" s="3"/>
+      <c r="AG60" s="3"/>
+      <c r="AH60" s="3"/>
+      <c r="AI60" s="3"/>
+      <c r="AJ60" s="3"/>
+      <c r="AK60" s="3"/>
+      <c r="AL60" s="3"/>
+      <c r="AM60" s="3"/>
+      <c r="AN60" s="3"/>
+      <c r="AO60" s="3"/>
+      <c r="AP60" s="3"/>
+      <c r="AQ60" s="3"/>
+      <c r="AR60" s="3"/>
+      <c r="AS60" s="3"/>
+      <c r="AT60" s="3"/>
+      <c r="AU60" s="3"/>
+      <c r="AV60" s="3"/>
+      <c r="AW60" s="3"/>
+      <c r="AX60" s="3"/>
+      <c r="AY60" s="3"/>
+      <c r="AZ60" s="3"/>
+      <c r="BA60" s="3"/>
+      <c r="BB60" s="3"/>
+    </row>
+    <row r="61" spans="19:54" x14ac:dyDescent="0.35">
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="3"/>
+      <c r="AA61" s="3"/>
+      <c r="AB61" s="3"/>
+      <c r="AC61" s="3"/>
+      <c r="AD61" s="3"/>
+      <c r="AE61" s="3"/>
+      <c r="AF61" s="3"/>
+      <c r="AG61" s="3"/>
+      <c r="AH61" s="3"/>
+      <c r="AI61" s="3"/>
+      <c r="AJ61" s="3"/>
+      <c r="AK61" s="3"/>
+      <c r="AL61" s="3"/>
+      <c r="AM61" s="3"/>
+      <c r="AN61" s="3"/>
+      <c r="AO61" s="3"/>
+      <c r="AP61" s="3"/>
+      <c r="AQ61" s="3"/>
+      <c r="AR61" s="3"/>
+      <c r="AS61" s="3"/>
+      <c r="AT61" s="3"/>
+      <c r="AU61" s="3"/>
+      <c r="AV61" s="3"/>
+      <c r="AW61" s="3"/>
+      <c r="AX61" s="3"/>
+      <c r="AY61" s="3"/>
+      <c r="AZ61" s="3"/>
+      <c r="BA61" s="3"/>
+      <c r="BB61" s="3"/>
+    </row>
+    <row r="62" spans="19:54" x14ac:dyDescent="0.35">
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+      <c r="AA62" s="3"/>
+      <c r="AB62" s="3"/>
+      <c r="AC62" s="3"/>
+      <c r="AD62" s="3"/>
+      <c r="AE62" s="3"/>
+      <c r="AF62" s="3"/>
+      <c r="AG62" s="3"/>
+      <c r="AH62" s="3"/>
+      <c r="AI62" s="3"/>
+      <c r="AJ62" s="3"/>
+      <c r="AK62" s="3"/>
+      <c r="AL62" s="3"/>
+      <c r="AM62" s="3"/>
+      <c r="AN62" s="3"/>
+      <c r="AO62" s="3"/>
+      <c r="AP62" s="3"/>
+      <c r="AQ62" s="3"/>
+      <c r="AR62" s="3"/>
+      <c r="AS62" s="3"/>
+      <c r="AT62" s="3"/>
+      <c r="AU62" s="3"/>
+      <c r="AV62" s="3"/>
+      <c r="AW62" s="3"/>
+      <c r="AX62" s="3"/>
+      <c r="AY62" s="3"/>
+      <c r="AZ62" s="3"/>
+      <c r="BA62" s="3"/>
+      <c r="BB62" s="3"/>
+    </row>
+    <row r="63" spans="19:54" x14ac:dyDescent="0.35">
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+      <c r="AA63" s="3"/>
+      <c r="AB63" s="3"/>
+      <c r="AC63" s="3"/>
+      <c r="AD63" s="3"/>
+      <c r="AE63" s="3"/>
+      <c r="AF63" s="3"/>
+      <c r="AG63" s="3"/>
+      <c r="AH63" s="3"/>
+      <c r="AI63" s="3"/>
+      <c r="AJ63" s="3"/>
+      <c r="AK63" s="3"/>
+      <c r="AL63" s="3"/>
+      <c r="AM63" s="3"/>
+      <c r="AN63" s="3"/>
+      <c r="AO63" s="3"/>
+      <c r="AP63" s="3"/>
+      <c r="AQ63" s="3"/>
+      <c r="AR63" s="3"/>
+      <c r="AS63" s="3"/>
+      <c r="AT63" s="3"/>
+      <c r="AU63" s="3"/>
+      <c r="AV63" s="3"/>
+      <c r="AW63" s="3"/>
+      <c r="AX63" s="3"/>
+      <c r="AY63" s="3"/>
+      <c r="AZ63" s="3"/>
+      <c r="BA63" s="3"/>
+      <c r="BB63" s="3"/>
+    </row>
+    <row r="64" spans="19:54" x14ac:dyDescent="0.35">
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
+      <c r="AA64" s="3"/>
+      <c r="AB64" s="3"/>
+      <c r="AC64" s="3"/>
+      <c r="AD64" s="3"/>
+      <c r="AE64" s="3"/>
+      <c r="AF64" s="3"/>
+      <c r="AG64" s="3"/>
+      <c r="AH64" s="3"/>
+      <c r="AI64" s="3"/>
+      <c r="AJ64" s="3"/>
+      <c r="AK64" s="3"/>
+      <c r="AL64" s="3"/>
+      <c r="AM64" s="3"/>
+      <c r="AN64" s="3"/>
+      <c r="AO64" s="3"/>
+      <c r="AP64" s="3"/>
+      <c r="AQ64" s="3"/>
+      <c r="AR64" s="3"/>
+      <c r="AS64" s="3"/>
+      <c r="AT64" s="3"/>
+      <c r="AU64" s="3"/>
+      <c r="AV64" s="3"/>
+      <c r="AW64" s="3"/>
+      <c r="AX64" s="3"/>
+      <c r="AY64" s="3"/>
+      <c r="AZ64" s="3"/>
+      <c r="BA64" s="3"/>
+      <c r="BB64" s="3"/>
+    </row>
+    <row r="65" spans="19:54" x14ac:dyDescent="0.35">
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3"/>
+      <c r="AA65" s="3"/>
+      <c r="AB65" s="3"/>
+      <c r="AC65" s="3"/>
+      <c r="AD65" s="3"/>
+      <c r="AE65" s="3"/>
+      <c r="AF65" s="3"/>
+      <c r="AG65" s="3"/>
+      <c r="AH65" s="3"/>
+      <c r="AI65" s="3"/>
+      <c r="AJ65" s="3"/>
+      <c r="AK65" s="3"/>
+      <c r="AL65" s="3"/>
+      <c r="AM65" s="3"/>
+      <c r="AN65" s="3"/>
+      <c r="AO65" s="3"/>
+      <c r="AP65" s="3"/>
+      <c r="AQ65" s="3"/>
+      <c r="AR65" s="3"/>
+      <c r="AS65" s="3"/>
+      <c r="AT65" s="3"/>
+      <c r="AU65" s="3"/>
+      <c r="AV65" s="3"/>
+      <c r="AW65" s="3"/>
+      <c r="AX65" s="3"/>
+      <c r="AY65" s="3"/>
+      <c r="AZ65" s="3"/>
+      <c r="BA65" s="3"/>
+      <c r="BB65" s="3"/>
+    </row>
+    <row r="66" spans="19:54" x14ac:dyDescent="0.35">
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="3"/>
+      <c r="AA66" s="3"/>
+      <c r="AB66" s="3"/>
+      <c r="AC66" s="3"/>
+      <c r="AD66" s="3"/>
+      <c r="AE66" s="3"/>
+      <c r="AF66" s="3"/>
+      <c r="AG66" s="3"/>
+      <c r="AH66" s="3"/>
+      <c r="AI66" s="3"/>
+      <c r="AJ66" s="3"/>
+      <c r="AK66" s="3"/>
+      <c r="AL66" s="3"/>
+      <c r="AM66" s="3"/>
+      <c r="AN66" s="3"/>
+      <c r="AO66" s="3"/>
+      <c r="AP66" s="3"/>
+      <c r="AQ66" s="3"/>
+      <c r="AR66" s="3"/>
+      <c r="AS66" s="3"/>
+      <c r="AT66" s="3"/>
+      <c r="AU66" s="3"/>
+      <c r="AV66" s="3"/>
+      <c r="AW66" s="3"/>
+      <c r="AX66" s="3"/>
+      <c r="AY66" s="3"/>
+      <c r="AZ66" s="3"/>
+      <c r="BA66" s="3"/>
+      <c r="BB66" s="3"/>
+    </row>
+    <row r="67" spans="19:54" x14ac:dyDescent="0.35">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+      <c r="AG67" s="3"/>
+      <c r="AH67" s="3"/>
+      <c r="AI67" s="3"/>
+      <c r="AJ67" s="3"/>
+      <c r="AK67" s="3"/>
+      <c r="AL67" s="3"/>
+      <c r="AM67" s="3"/>
+      <c r="AN67" s="3"/>
+      <c r="AO67" s="3"/>
+      <c r="AP67" s="3"/>
+      <c r="AQ67" s="3"/>
+      <c r="AR67" s="3"/>
+      <c r="AS67" s="3"/>
+      <c r="AT67" s="3"/>
+      <c r="AU67" s="3"/>
+      <c r="AV67" s="3"/>
+      <c r="AW67" s="3"/>
+      <c r="AX67" s="3"/>
+      <c r="AY67" s="3"/>
+      <c r="AZ67" s="3"/>
+      <c r="BA67" s="3"/>
+      <c r="BB67" s="3"/>
+    </row>
+    <row r="68" spans="19:54" x14ac:dyDescent="0.35">
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3"/>
+      <c r="AA68" s="3"/>
+      <c r="AB68" s="3"/>
+      <c r="AC68" s="3"/>
+      <c r="AD68" s="3"/>
+      <c r="AE68" s="3"/>
+      <c r="AF68" s="3"/>
+      <c r="AG68" s="3"/>
+      <c r="AH68" s="3"/>
+      <c r="AI68" s="3"/>
+      <c r="AJ68" s="3"/>
+      <c r="AK68" s="3"/>
+      <c r="AL68" s="3"/>
+      <c r="AM68" s="3"/>
+      <c r="AN68" s="3"/>
+      <c r="AO68" s="3"/>
+      <c r="AP68" s="3"/>
+      <c r="AQ68" s="3"/>
+      <c r="AR68" s="3"/>
+      <c r="AS68" s="3"/>
+      <c r="AT68" s="3"/>
+      <c r="AU68" s="3"/>
+      <c r="AV68" s="3"/>
+      <c r="AW68" s="3"/>
+      <c r="AX68" s="3"/>
+      <c r="AY68" s="3"/>
+      <c r="AZ68" s="3"/>
+      <c r="BA68" s="3"/>
+      <c r="BB68" s="3"/>
+    </row>
+    <row r="69" spans="19:54" x14ac:dyDescent="0.35">
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3"/>
+      <c r="AA69" s="3"/>
+      <c r="AB69" s="3"/>
+      <c r="AC69" s="3"/>
+      <c r="AD69" s="3"/>
+      <c r="AE69" s="3"/>
+      <c r="AF69" s="3"/>
+      <c r="AG69" s="3"/>
+      <c r="AH69" s="3"/>
+      <c r="AI69" s="3"/>
+      <c r="AJ69" s="3"/>
+      <c r="AK69" s="3"/>
+      <c r="AL69" s="3"/>
+      <c r="AM69" s="3"/>
+      <c r="AN69" s="3"/>
+      <c r="AO69" s="3"/>
+      <c r="AP69" s="3"/>
+      <c r="AQ69" s="3"/>
+      <c r="AR69" s="3"/>
+      <c r="AS69" s="3"/>
+      <c r="AT69" s="3"/>
+      <c r="AU69" s="3"/>
+      <c r="AV69" s="3"/>
+      <c r="AW69" s="3"/>
+      <c r="AX69" s="3"/>
+      <c r="AY69" s="3"/>
+      <c r="AZ69" s="3"/>
+      <c r="BA69" s="3"/>
+      <c r="BB69" s="3"/>
+    </row>
+    <row r="70" spans="19:54" x14ac:dyDescent="0.35">
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3"/>
+      <c r="AA70" s="3"/>
+      <c r="AB70" s="3"/>
+      <c r="AC70" s="3"/>
+      <c r="AD70" s="3"/>
+      <c r="AE70" s="3"/>
+      <c r="AF70" s="3"/>
+      <c r="AG70" s="3"/>
+      <c r="AH70" s="3"/>
+      <c r="AI70" s="3"/>
+      <c r="AJ70" s="3"/>
+      <c r="AK70" s="3"/>
+      <c r="AL70" s="3"/>
+      <c r="AM70" s="3"/>
+      <c r="AN70" s="3"/>
+      <c r="AO70" s="3"/>
+      <c r="AP70" s="3"/>
+      <c r="AQ70" s="3"/>
+      <c r="AR70" s="3"/>
+      <c r="AS70" s="3"/>
+      <c r="AT70" s="3"/>
+      <c r="AU70" s="3"/>
+      <c r="AV70" s="3"/>
+      <c r="AW70" s="3"/>
+      <c r="AX70" s="3"/>
+      <c r="AY70" s="3"/>
+      <c r="AZ70" s="3"/>
+      <c r="BA70" s="3"/>
+      <c r="BB70" s="3"/>
+    </row>
+    <row r="71" spans="19:54" x14ac:dyDescent="0.35">
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3"/>
+      <c r="X71" s="3"/>
+      <c r="Y71" s="3"/>
+      <c r="Z71" s="3"/>
+      <c r="AA71" s="3"/>
+      <c r="AB71" s="3"/>
+      <c r="AC71" s="3"/>
+      <c r="AD71" s="3"/>
+      <c r="AE71" s="3"/>
+      <c r="AF71" s="3"/>
+      <c r="AG71" s="3"/>
+      <c r="AH71" s="3"/>
+      <c r="AI71" s="3"/>
+      <c r="AJ71" s="3"/>
+      <c r="AK71" s="3"/>
+      <c r="AL71" s="3"/>
+      <c r="AM71" s="3"/>
+      <c r="AN71" s="3"/>
+      <c r="AO71" s="3"/>
+      <c r="AP71" s="3"/>
+      <c r="AQ71" s="3"/>
+      <c r="AR71" s="3"/>
+      <c r="AS71" s="3"/>
+      <c r="AT71" s="3"/>
+      <c r="AU71" s="3"/>
+      <c r="AV71" s="3"/>
+      <c r="AW71" s="3"/>
+      <c r="AX71" s="3"/>
+      <c r="AY71" s="3"/>
+      <c r="AZ71" s="3"/>
+      <c r="BA71" s="3"/>
+      <c r="BB71" s="3"/>
+    </row>
+    <row r="72" spans="19:54" x14ac:dyDescent="0.35">
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
+      <c r="Y72" s="3"/>
+      <c r="Z72" s="3"/>
+      <c r="AA72" s="3"/>
+      <c r="AB72" s="3"/>
+      <c r="AC72" s="3"/>
+      <c r="AD72" s="3"/>
+      <c r="AE72" s="3"/>
+      <c r="AF72" s="3"/>
+      <c r="AG72" s="3"/>
+      <c r="AH72" s="3"/>
+      <c r="AI72" s="3"/>
+      <c r="AJ72" s="3"/>
+      <c r="AK72" s="3"/>
+      <c r="AL72" s="3"/>
+      <c r="AM72" s="3"/>
+      <c r="AN72" s="3"/>
+      <c r="AO72" s="3"/>
+      <c r="AP72" s="3"/>
+      <c r="AQ72" s="3"/>
+      <c r="AR72" s="3"/>
+      <c r="AS72" s="3"/>
+      <c r="AT72" s="3"/>
+      <c r="AU72" s="3"/>
+      <c r="AV72" s="3"/>
+      <c r="AW72" s="3"/>
+      <c r="AX72" s="3"/>
+      <c r="AY72" s="3"/>
+      <c r="AZ72" s="3"/>
+      <c r="BA72" s="3"/>
+      <c r="BB72" s="3"/>
+    </row>
+    <row r="73" spans="19:54" x14ac:dyDescent="0.35">
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="6"/>
+      <c r="V73" s="6"/>
+      <c r="W73" s="6"/>
+      <c r="X73" s="6"/>
+      <c r="Y73" s="6"/>
+      <c r="Z73" s="6"/>
+      <c r="AA73" s="6"/>
+      <c r="AB73" s="6"/>
+      <c r="AC73" s="6"/>
+      <c r="AD73" s="6"/>
+      <c r="AE73" s="6"/>
+      <c r="AF73" s="6"/>
+      <c r="AG73" s="6"/>
+      <c r="AH73" s="6"/>
+      <c r="AI73" s="6"/>
+      <c r="AJ73" s="6"/>
+      <c r="AK73" s="6"/>
+      <c r="AL73" s="6"/>
+      <c r="AM73" s="6"/>
+      <c r="AN73" s="6"/>
+      <c r="AO73" s="6"/>
+      <c r="AP73" s="6"/>
+      <c r="AQ73" s="6"/>
+      <c r="AR73" s="6"/>
+      <c r="AS73" s="6"/>
+      <c r="AT73" s="6"/>
+      <c r="AU73" s="6"/>
+      <c r="AV73" s="6"/>
+      <c r="AW73" s="6"/>
+      <c r="AX73" s="6"/>
+      <c r="AY73" s="6"/>
+      <c r="AZ73" s="6"/>
+      <c r="BA73" s="6"/>
+      <c r="BB73" s="6"/>
+    </row>
+    <row r="74" spans="19:54" x14ac:dyDescent="0.35">
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="6"/>
+      <c r="W74" s="6"/>
+      <c r="X74" s="6"/>
+      <c r="Y74" s="6"/>
+      <c r="Z74" s="6"/>
+      <c r="AA74" s="6"/>
+      <c r="AB74" s="6"/>
+      <c r="AC74" s="6"/>
+      <c r="AD74" s="6"/>
+      <c r="AE74" s="6"/>
+      <c r="AF74" s="6"/>
+      <c r="AG74" s="6"/>
+      <c r="AH74" s="6"/>
+      <c r="AI74" s="6"/>
+      <c r="AJ74" s="6"/>
+      <c r="AK74" s="6"/>
+      <c r="AL74" s="6"/>
+      <c r="AM74" s="6"/>
+      <c r="AN74" s="6"/>
+      <c r="AO74" s="6"/>
+      <c r="AP74" s="6"/>
+      <c r="AQ74" s="6"/>
+      <c r="AR74" s="6"/>
+      <c r="AS74" s="6"/>
+      <c r="AT74" s="6"/>
+      <c r="AU74" s="6"/>
+      <c r="AV74" s="6"/>
+      <c r="AW74" s="6"/>
+      <c r="AX74" s="6"/>
+      <c r="AY74" s="6"/>
+      <c r="AZ74" s="6"/>
+      <c r="BA74" s="6"/>
+      <c r="BB74" s="6"/>
+    </row>
+    <row r="75" spans="19:54" x14ac:dyDescent="0.35">
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="6"/>
+      <c r="W75" s="6"/>
+      <c r="X75" s="6"/>
+      <c r="Y75" s="6"/>
+      <c r="Z75" s="6"/>
+      <c r="AA75" s="6"/>
+      <c r="AB75" s="6"/>
+      <c r="AC75" s="6"/>
+      <c r="AD75" s="6"/>
+      <c r="AE75" s="6"/>
+      <c r="AF75" s="6"/>
+      <c r="AG75" s="6"/>
+      <c r="AH75" s="6"/>
+      <c r="AI75" s="6"/>
+      <c r="AJ75" s="6"/>
+      <c r="AK75" s="6"/>
+      <c r="AL75" s="6"/>
+      <c r="AM75" s="6"/>
+      <c r="AN75" s="6"/>
+      <c r="AO75" s="6"/>
+      <c r="AP75" s="6"/>
+      <c r="AQ75" s="6"/>
+      <c r="AR75" s="6"/>
+      <c r="AS75" s="6"/>
+      <c r="AT75" s="6"/>
+      <c r="AU75" s="6"/>
+      <c r="AV75" s="6"/>
+      <c r="AW75" s="6"/>
+      <c r="AX75" s="6"/>
+      <c r="AY75" s="6"/>
+      <c r="AZ75" s="6"/>
+      <c r="BA75" s="6"/>
+      <c r="BB75" s="6"/>
+    </row>
+    <row r="76" spans="19:54" x14ac:dyDescent="0.35">
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
+      <c r="X76" s="6"/>
+      <c r="Y76" s="6"/>
+      <c r="Z76" s="6"/>
+      <c r="AA76" s="6"/>
+      <c r="AB76" s="6"/>
+      <c r="AC76" s="6"/>
+      <c r="AD76" s="6"/>
+      <c r="AE76" s="6"/>
+      <c r="AF76" s="6"/>
+      <c r="AG76" s="6"/>
+      <c r="AH76" s="6"/>
+      <c r="AI76" s="6"/>
+      <c r="AJ76" s="6"/>
+      <c r="AK76" s="6"/>
+      <c r="AL76" s="6"/>
+      <c r="AM76" s="6"/>
+      <c r="AN76" s="6"/>
+      <c r="AO76" s="6"/>
+      <c r="AP76" s="6"/>
+      <c r="AQ76" s="6"/>
+      <c r="AR76" s="6"/>
+      <c r="AS76" s="6"/>
+      <c r="AT76" s="6"/>
+      <c r="AU76" s="6"/>
+      <c r="AV76" s="6"/>
+      <c r="AW76" s="6"/>
+      <c r="AX76" s="6"/>
+      <c r="AY76" s="6"/>
+      <c r="AZ76" s="6"/>
+      <c r="BA76" s="6"/>
+      <c r="BB76" s="6"/>
+    </row>
+    <row r="77" spans="19:54" x14ac:dyDescent="0.35">
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
+      <c r="U77" s="6"/>
+      <c r="V77" s="6"/>
+      <c r="W77" s="6"/>
+      <c r="X77" s="6"/>
+      <c r="Y77" s="6"/>
+      <c r="Z77" s="6"/>
+      <c r="AA77" s="6"/>
+      <c r="AB77" s="6"/>
+      <c r="AC77" s="6"/>
+      <c r="AD77" s="6"/>
+      <c r="AE77" s="6"/>
+      <c r="AF77" s="6"/>
+      <c r="AG77" s="6"/>
+      <c r="AH77" s="6"/>
+      <c r="AI77" s="6"/>
+      <c r="AJ77" s="6"/>
+      <c r="AK77" s="6"/>
+      <c r="AL77" s="6"/>
+      <c r="AM77" s="6"/>
+      <c r="AN77" s="6"/>
+      <c r="AO77" s="6"/>
+      <c r="AP77" s="6"/>
+      <c r="AQ77" s="6"/>
+      <c r="AR77" s="6"/>
+      <c r="AS77" s="6"/>
+      <c r="AT77" s="6"/>
+      <c r="AU77" s="6"/>
+      <c r="AV77" s="6"/>
+      <c r="AW77" s="6"/>
+      <c r="AX77" s="6"/>
+      <c r="AY77" s="6"/>
+      <c r="AZ77" s="6"/>
+      <c r="BA77" s="6"/>
+      <c r="BB77" s="6"/>
+    </row>
+    <row r="78" spans="19:54" x14ac:dyDescent="0.35">
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="6"/>
+      <c r="V78" s="6"/>
+      <c r="W78" s="6"/>
+      <c r="X78" s="6"/>
+      <c r="Y78" s="6"/>
+      <c r="Z78" s="6"/>
+      <c r="AA78" s="6"/>
+      <c r="AB78" s="6"/>
+      <c r="AC78" s="6"/>
+      <c r="AD78" s="6"/>
+      <c r="AE78" s="6"/>
+      <c r="AF78" s="6"/>
+      <c r="AG78" s="6"/>
+      <c r="AH78" s="6"/>
+      <c r="AI78" s="6"/>
+      <c r="AJ78" s="6"/>
+      <c r="AK78" s="6"/>
+      <c r="AL78" s="6"/>
+      <c r="AM78" s="6"/>
+      <c r="AN78" s="6"/>
+      <c r="AO78" s="6"/>
+      <c r="AP78" s="6"/>
+      <c r="AQ78" s="6"/>
+      <c r="AR78" s="6"/>
+      <c r="AS78" s="6"/>
+      <c r="AT78" s="6"/>
+      <c r="AU78" s="6"/>
+      <c r="AV78" s="6"/>
+      <c r="AW78" s="6"/>
+      <c r="AX78" s="6"/>
+      <c r="AY78" s="6"/>
+      <c r="AZ78" s="6"/>
+      <c r="BA78" s="6"/>
+      <c r="BB78" s="6"/>
+    </row>
+    <row r="79" spans="19:54" x14ac:dyDescent="0.35">
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="6"/>
+      <c r="V79" s="6"/>
+      <c r="W79" s="6"/>
+      <c r="X79" s="6"/>
+      <c r="Y79" s="6"/>
+      <c r="Z79" s="6"/>
+      <c r="AA79" s="6"/>
+      <c r="AB79" s="6"/>
+      <c r="AC79" s="6"/>
+      <c r="AD79" s="6"/>
+      <c r="AE79" s="6"/>
+      <c r="AF79" s="6"/>
+      <c r="AG79" s="6"/>
+      <c r="AH79" s="6"/>
+      <c r="AI79" s="6"/>
+      <c r="AJ79" s="6"/>
+      <c r="AK79" s="6"/>
+      <c r="AL79" s="6"/>
+      <c r="AM79" s="6"/>
+      <c r="AN79" s="6"/>
+      <c r="AO79" s="6"/>
+      <c r="AP79" s="6"/>
+      <c r="AQ79" s="6"/>
+      <c r="AR79" s="6"/>
+      <c r="AS79" s="6"/>
+      <c r="AT79" s="6"/>
+      <c r="AU79" s="6"/>
+      <c r="AV79" s="6"/>
+      <c r="AW79" s="6"/>
+      <c r="AX79" s="6"/>
+      <c r="AY79" s="6"/>
+      <c r="AZ79" s="6"/>
+      <c r="BA79" s="6"/>
+      <c r="BB79" s="6"/>
+    </row>
+    <row r="80" spans="19:54" x14ac:dyDescent="0.35">
+      <c r="S80" s="6"/>
+      <c r="T80" s="6"/>
+      <c r="U80" s="6"/>
+      <c r="V80" s="6"/>
+      <c r="W80" s="6"/>
+      <c r="X80" s="6"/>
+      <c r="Y80" s="6"/>
+      <c r="Z80" s="6"/>
+      <c r="AA80" s="6"/>
+      <c r="AB80" s="6"/>
+      <c r="AC80" s="6"/>
+      <c r="AD80" s="6"/>
+      <c r="AE80" s="6"/>
+      <c r="AF80" s="6"/>
+      <c r="AG80" s="6"/>
+      <c r="AH80" s="6"/>
+      <c r="AI80" s="6"/>
+      <c r="AJ80" s="6"/>
+      <c r="AK80" s="6"/>
+      <c r="AL80" s="6"/>
+      <c r="AM80" s="6"/>
+      <c r="AN80" s="6"/>
+      <c r="AO80" s="6"/>
+      <c r="AP80" s="6"/>
+      <c r="AQ80" s="6"/>
+      <c r="AR80" s="6"/>
+      <c r="AS80" s="6"/>
+      <c r="AT80" s="6"/>
+      <c r="AU80" s="6"/>
+      <c r="AV80" s="6"/>
+      <c r="AW80" s="6"/>
+      <c r="AX80" s="6"/>
+      <c r="AY80" s="6"/>
+      <c r="AZ80" s="6"/>
+      <c r="BA80" s="6"/>
+      <c r="BB80" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -3386,10 +8290,10 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3401,10 +8305,10 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
         <v>45</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -3413,40 +8317,40 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>48</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>49</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>50</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>51</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>52</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>54</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>55</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>56</v>
-      </c>
-      <c r="U1" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3467,30 +8371,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>60</v>
-      </c>
-      <c r="F1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
         <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
       </c>
       <c r="D2" s="1">
         <v>24352.17</v>
@@ -3523,28 +8427,28 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>66</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>67</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
         <v>68</v>
-      </c>
-      <c r="G1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Signalétique.xlsx
+++ b/Signalétique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seble\Code\env\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86196386-4706-456E-8563-4D16C385B9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78A1E32-BC3F-4CA1-BAFF-DB2C6E6B0068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -584,9 +584,6 @@
     <t>Cap/Dis</t>
   </si>
   <si>
-    <t>Nom Long</t>
-  </si>
-  <si>
     <t>Taille du Fonds</t>
   </si>
   <si>
@@ -672,6 +669,9 @@
   </si>
   <si>
     <t>Autre Emetteur</t>
+  </si>
+  <si>
+    <t>CodeBank</t>
   </si>
 </sst>
 </file>
@@ -754,7 +754,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="54">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1188,14 +1188,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1210,14 +1202,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Positions_Table" displayName="Positions_Table" ref="A1:BB36" totalsRowShown="0" dataDxfId="54">
-  <autoFilter ref="A1:BB36" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="54">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Type d'instr" dataDxfId="53"/>
-    <tableColumn id="16" xr3:uid="{94AEAA9C-01FD-4552-80C5-B58EAB6A0274}" name="Isin" dataDxfId="52"/>
-    <tableColumn id="18" xr3:uid="{937F896E-58F8-4868-B80F-BFBBD02E1A67}" name="Classe d'actifs" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Nom" dataDxfId="50"/>
-    <tableColumn id="17" xr3:uid="{A38B70B5-75C6-42AE-B07E-39155C78ACA7}" name="Nom Long" dataDxfId="49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Positions_Table" displayName="Positions_Table" ref="A1:BA36" totalsRowShown="0" dataDxfId="53">
+  <autoFilter ref="A1:BA36" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="53">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Type d'instr" dataDxfId="52"/>
+    <tableColumn id="16" xr3:uid="{94AEAA9C-01FD-4552-80C5-B58EAB6A0274}" name="Isin" dataDxfId="51"/>
+    <tableColumn id="18" xr3:uid="{937F896E-58F8-4868-B80F-BFBBD02E1A67}" name="Classe d'actifs" dataDxfId="50"/>
+    <tableColumn id="17" xr3:uid="{A38B70B5-75C6-42AE-B07E-39155C78ACA7}" name="Nom" dataDxfId="49"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Symbole" dataDxfId="48"/>
     <tableColumn id="19" xr3:uid="{042E1319-717D-42EB-9B03-27CBCD2720D8}" name="Banques Dispo" dataDxfId="47"/>
     <tableColumn id="14" xr3:uid="{2DA23C43-437A-4010-B4D9-1DDAFDBF9426}" name="Devise" dataDxfId="46"/>
@@ -1622,8 +1613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1631,33 +1622,33 @@
     <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.81640625" customWidth="1"/>
-    <col min="6" max="6" width="25.08984375" customWidth="1"/>
-    <col min="7" max="7" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="23.36328125" customWidth="1"/>
-    <col min="10" max="10" width="14.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.1796875" customWidth="1"/>
-    <col min="15" max="15" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6328125" customWidth="1"/>
-    <col min="23" max="23" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.7265625" customWidth="1"/>
-    <col min="38" max="38" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="26.6328125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.81640625" customWidth="1"/>
+    <col min="5" max="5" width="25.08984375" customWidth="1"/>
+    <col min="6" max="6" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="23.36328125" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1796875" customWidth="1"/>
+    <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.6328125" customWidth="1"/>
+    <col min="22" max="22" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.7265625" customWidth="1"/>
+    <col min="37" max="37" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="17.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.35">
@@ -1674,37 +1665,37 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>183</v>
@@ -1713,10 +1704,10 @@
         <v>184</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>186</v>
@@ -1740,43 +1731,43 @@
         <v>192</v>
       </c>
       <c r="AA1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="AC1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="AD1" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="AE1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="AG1" s="2" t="s">
         <v>196</v>
       </c>
       <c r="AH1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="AI1" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="AJ1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="AK1" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="AL1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM1" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="AN1" s="2" t="s">
         <v>200</v>
@@ -1806,19 +1797,19 @@
         <v>208</v>
       </c>
       <c r="AW1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AY1" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="AX1" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="AZ1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="BA1" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="BB1" s="2" t="s">
         <v>211</v>
@@ -1835,40 +1826,40 @@
         <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="7">
+      <c r="K2" s="7">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="M2" t="s">
+      <c r="L2" t="s">
         <v>140</v>
       </c>
-      <c r="O2" t="s">
+      <c r="N2" t="s">
         <v>142</v>
       </c>
+      <c r="O2">
+        <v>16513</v>
+      </c>
       <c r="P2">
-        <v>16513</v>
-      </c>
-      <c r="Q2">
         <v>612</v>
       </c>
-      <c r="R2" t="s">
+      <c r="Q2" t="s">
         <v>143</v>
       </c>
+      <c r="R2" s="8">
+        <v>0</v>
+      </c>
       <c r="S2" s="8">
         <v>0</v>
       </c>
       <c r="T2" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="U2" s="8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="V2" s="8">
         <v>0</v>
@@ -1880,61 +1871,61 @@
         <v>0</v>
       </c>
       <c r="Y2" s="8">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Z2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AA2" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="8">
-        <v>0</v>
-      </c>
       <c r="AC2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AD2" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="8">
-        <v>0</v>
-      </c>
       <c r="AI2" s="8">
-        <v>0.14000000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="AJ2" s="8">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="AK2" s="8">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AL2" s="8">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="AM2" s="8">
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
       <c r="AN2" s="8">
         <v>0.08</v>
       </c>
       <c r="AO2" s="8">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="AP2" s="8">
-        <v>0.11</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AQ2" s="8">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="AR2" s="8">
         <v>0</v>
@@ -1952,15 +1943,15 @@
         <v>0</v>
       </c>
       <c r="AW2" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="8">
         <v>0.24</v>
       </c>
+      <c r="AX2" s="8"/>
       <c r="AY2" s="8"/>
       <c r="AZ2" s="8"/>
       <c r="BA2" s="8"/>
-      <c r="BB2" s="8"/>
+      <c r="BB2" s="8" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -1973,40 +1964,40 @@
         <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="7">
+      <c r="K3" s="7">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="M3" t="s">
+      <c r="L3" t="s">
         <v>141</v>
       </c>
-      <c r="O3" t="s">
+      <c r="N3" t="s">
         <v>142</v>
       </c>
+      <c r="O3">
+        <v>1561</v>
+      </c>
       <c r="P3">
-        <v>1561</v>
-      </c>
-      <c r="Q3">
         <v>47</v>
       </c>
-      <c r="R3" t="s">
+      <c r="Q3" t="s">
         <v>143</v>
       </c>
+      <c r="R3" s="8">
+        <v>0.52</v>
+      </c>
       <c r="S3" s="8">
-        <v>0.52</v>
+        <v>0.06</v>
       </c>
       <c r="T3" s="8">
-        <v>0.06</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U3" s="8">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="V3" s="8">
         <v>0</v>
@@ -2045,28 +2036,28 @@
         <v>0</v>
       </c>
       <c r="AH3" s="8">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AI3" s="8">
-        <v>0.05</v>
+        <v>0.23</v>
       </c>
       <c r="AJ3" s="8">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="8">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="AL3" s="8">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="8">
         <v>0</v>
       </c>
       <c r="AN3" s="8">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AO3" s="8">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AP3" s="8">
         <v>0</v>
@@ -2090,15 +2081,15 @@
         <v>0</v>
       </c>
       <c r="AW3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="8">
         <v>0.13</v>
       </c>
+      <c r="AX3" s="8"/>
       <c r="AY3" s="8"/>
       <c r="AZ3" s="8"/>
       <c r="BA3" s="8"/>
-      <c r="BB3" s="8"/>
+      <c r="BB3" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -2114,142 +2105,142 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" s="7">
+        <v>6.6E-3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>140</v>
+      </c>
+      <c r="N4" t="s">
+        <v>142</v>
+      </c>
+      <c r="O4">
+        <v>5310</v>
+      </c>
+      <c r="P4">
+        <v>50</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>143</v>
+      </c>
+      <c r="R4" s="8">
+        <v>0</v>
+      </c>
+      <c r="S4" s="8">
+        <v>0</v>
+      </c>
+      <c r="T4" s="8">
+        <v>0</v>
+      </c>
+      <c r="U4" s="8">
+        <v>0</v>
+      </c>
+      <c r="V4" s="8">
+        <v>0</v>
+      </c>
+      <c r="W4" s="8">
+        <v>0</v>
+      </c>
+      <c r="X4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="AY4" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="AZ4" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="BA4" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="BB4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" t="s">
-        <v>146</v>
-      </c>
-      <c r="L4" s="7">
-        <v>6.6E-3</v>
-      </c>
-      <c r="M4" t="s">
-        <v>140</v>
-      </c>
-      <c r="O4" t="s">
-        <v>142</v>
-      </c>
-      <c r="P4">
-        <v>5310</v>
-      </c>
-      <c r="Q4">
-        <v>50</v>
-      </c>
-      <c r="R4" t="s">
-        <v>143</v>
-      </c>
-      <c r="S4" s="8">
-        <v>0</v>
-      </c>
-      <c r="T4" s="8">
-        <v>0</v>
-      </c>
-      <c r="U4" s="8">
-        <v>0</v>
-      </c>
-      <c r="V4" s="8">
-        <v>0</v>
-      </c>
-      <c r="W4" s="8">
-        <v>0</v>
-      </c>
-      <c r="X4" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="8">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="8">
-        <v>1</v>
-      </c>
-      <c r="AY4" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="AZ4" s="8">
-        <v>0.74</v>
-      </c>
-      <c r="BA4" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="BB4" s="8">
-        <v>0.15</v>
-      </c>
     </row>
-    <row r="5" spans="1:54" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:54" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -2260,37 +2251,37 @@
         <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="7">
+      <c r="K5" s="7">
         <v>1.5E-3</v>
       </c>
-      <c r="M5" t="s">
+      <c r="L5" t="s">
         <v>140</v>
       </c>
-      <c r="O5" t="s">
+      <c r="N5" t="s">
         <v>142</v>
       </c>
+      <c r="O5">
+        <v>330</v>
+      </c>
       <c r="P5">
-        <v>330</v>
-      </c>
-      <c r="Q5">
         <v>167</v>
       </c>
-      <c r="R5" t="s">
+      <c r="Q5" t="s">
         <v>143</v>
       </c>
+      <c r="R5" s="8">
+        <v>0</v>
+      </c>
       <c r="S5" s="8">
-        <v>0</v>
+        <v>0.996</v>
       </c>
       <c r="T5" s="8">
-        <v>0.996</v>
+        <v>0</v>
       </c>
       <c r="U5" s="8">
         <v>0</v>
@@ -2335,57 +2326,57 @@
         <v>0</v>
       </c>
       <c r="AI5" s="8">
-        <v>0</v>
+        <v>4.0000000000000565E-3</v>
       </c>
       <c r="AJ5" s="8">
-        <v>4.0000000000000565E-3</v>
+        <v>0</v>
       </c>
       <c r="AK5" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AL5" s="8">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="AM5" s="8">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="AN5" s="8">
         <v>0.16</v>
       </c>
       <c r="AO5" s="8">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="AP5" s="8">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="AQ5" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AR5" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="8">
         <v>0.01</v>
       </c>
-      <c r="AR5" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AS5" s="8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AT5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="8">
-        <v>0.01</v>
-      </c>
+      <c r="AX5" s="8"/>
       <c r="AY5" s="8"/>
       <c r="AZ5" s="8"/>
       <c r="BA5" s="8"/>
-      <c r="BB5" s="8"/>
+      <c r="BB5" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -2398,43 +2389,43 @@
         <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
         <v>150</v>
       </c>
-      <c r="F6">
+      <c r="E6">
         <v>171289902</v>
       </c>
-      <c r="L6" s="7">
+      <c r="K6" s="7">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="M6" t="s">
+      <c r="L6" t="s">
         <v>140</v>
       </c>
-      <c r="N6">
+      <c r="M6">
         <v>9</v>
       </c>
-      <c r="O6" t="s">
+      <c r="N6" t="s">
         <v>142</v>
       </c>
+      <c r="O6">
+        <v>500</v>
+      </c>
       <c r="P6">
-        <v>500</v>
-      </c>
-      <c r="Q6">
         <v>50</v>
       </c>
-      <c r="R6" t="s">
+      <c r="Q6" t="s">
         <v>143</v>
       </c>
+      <c r="R6" s="8">
+        <v>0.44</v>
+      </c>
       <c r="S6" s="8">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="T6" s="8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="U6" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="V6" s="8">
         <v>0</v>
@@ -2473,19 +2464,19 @@
         <v>0</v>
       </c>
       <c r="AH6" s="8">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AI6" s="8">
-        <v>0.08</v>
+        <v>0.38</v>
       </c>
       <c r="AJ6" s="8">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="8">
         <v>0</v>
@@ -2520,13 +2511,13 @@
       <c r="AW6" s="8">
         <v>0</v>
       </c>
-      <c r="AX6" s="8">
-        <v>0</v>
-      </c>
+      <c r="AX6" s="8"/>
       <c r="AY6" s="8"/>
       <c r="AZ6" s="8"/>
       <c r="BA6" s="8"/>
-      <c r="BB6" s="8"/>
+      <c r="BB6" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -2542,32 +2533,32 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="7">
+      <c r="K7" s="7">
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="M7" t="s">
+      <c r="L7" t="s">
         <v>140</v>
       </c>
-      <c r="N7">
+      <c r="M7">
         <v>8</v>
       </c>
-      <c r="O7" t="s">
+      <c r="N7" t="s">
         <v>142</v>
       </c>
+      <c r="O7">
+        <v>145</v>
+      </c>
       <c r="P7">
-        <v>145</v>
-      </c>
-      <c r="Q7">
         <v>50</v>
       </c>
-      <c r="R7" t="s">
+      <c r="Q7" t="s">
         <v>143</v>
       </c>
+      <c r="R7" s="8">
+        <v>0</v>
+      </c>
       <c r="S7" s="8">
         <v>0</v>
       </c>
@@ -2617,57 +2608,57 @@
         <v>0</v>
       </c>
       <c r="AI7" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="8">
         <v>1</v>
       </c>
-      <c r="AK7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="8">
-        <v>1</v>
-      </c>
+      <c r="AX7" s="8"/>
       <c r="AY7" s="8"/>
       <c r="AZ7" s="8"/>
       <c r="BA7" s="8"/>
-      <c r="BB7" s="8"/>
+      <c r="BB7" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -2680,32 +2671,32 @@
         <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="E8" t="s">
-        <v>153</v>
-      </c>
-      <c r="F8" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="7">
+      <c r="K8" s="7">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M8" t="s">
+      <c r="L8" t="s">
         <v>140</v>
       </c>
-      <c r="O8" t="s">
+      <c r="N8" t="s">
         <v>142</v>
       </c>
+      <c r="O8">
+        <v>4120</v>
+      </c>
       <c r="P8">
-        <v>4120</v>
-      </c>
-      <c r="Q8">
         <v>1</v>
       </c>
-      <c r="R8" t="s">
+      <c r="Q8" t="s">
         <v>143</v>
       </c>
+      <c r="R8" s="8">
+        <v>0</v>
+      </c>
       <c r="S8" s="8">
         <v>0</v>
       </c>
@@ -2755,57 +2746,57 @@
         <v>0</v>
       </c>
       <c r="AI8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="8">
         <v>1</v>
       </c>
-      <c r="AK8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="8">
-        <v>1</v>
-      </c>
+      <c r="AX8" s="8"/>
       <c r="AY8" s="8"/>
       <c r="AZ8" s="8"/>
       <c r="BA8" s="8"/>
-      <c r="BB8" s="8"/>
+      <c r="BB8" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -2818,32 +2809,32 @@
         <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="E9" t="s">
-        <v>154</v>
-      </c>
-      <c r="F9" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="7">
+      <c r="K9" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M9" t="s">
+      <c r="L9" t="s">
         <v>140</v>
       </c>
-      <c r="O9" t="s">
+      <c r="N9" t="s">
         <v>142</v>
       </c>
+      <c r="O9">
+        <v>1482</v>
+      </c>
       <c r="P9">
-        <v>1482</v>
-      </c>
-      <c r="Q9">
         <v>30</v>
       </c>
-      <c r="R9" t="s">
+      <c r="Q9" t="s">
         <v>143</v>
       </c>
+      <c r="R9" s="8">
+        <v>0</v>
+      </c>
       <c r="S9" s="8">
         <v>0</v>
       </c>
@@ -2866,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="Z9" s="8">
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="AA9" s="8">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="8">
         <v>0</v>
@@ -2893,10 +2884,10 @@
         <v>0</v>
       </c>
       <c r="AI9" s="8">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AJ9" s="8">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="AK9" s="8">
         <v>0</v>
@@ -2905,22 +2896,22 @@
         <v>0</v>
       </c>
       <c r="AM9" s="8">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="AN9" s="8">
-        <v>0.44</v>
+        <v>0.24</v>
       </c>
       <c r="AO9" s="8">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AP9" s="8">
         <v>0</v>
       </c>
       <c r="AQ9" s="8">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AR9" s="8">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="AS9" s="8">
         <v>0</v>
@@ -2935,15 +2926,15 @@
         <v>0</v>
       </c>
       <c r="AW9" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="8">
         <v>0.04</v>
       </c>
+      <c r="AX9" s="8"/>
       <c r="AY9" s="8"/>
       <c r="AZ9" s="8"/>
       <c r="BA9" s="8"/>
-      <c r="BB9" s="8"/>
+      <c r="BB9" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -2956,38 +2947,38 @@
         <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="E10" t="s">
-        <v>156</v>
-      </c>
-      <c r="F10" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="5">
+      <c r="I10" s="5">
         <v>47118</v>
       </c>
-      <c r="K10" t="s">
+      <c r="J10" t="s">
         <v>146</v>
       </c>
-      <c r="L10" s="7">
+      <c r="K10" s="7">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="M10" t="s">
+      <c r="L10" t="s">
         <v>140</v>
       </c>
-      <c r="O10" t="s">
+      <c r="N10" t="s">
         <v>142</v>
       </c>
+      <c r="O10">
+        <v>969</v>
+      </c>
       <c r="P10">
-        <v>969</v>
-      </c>
-      <c r="Q10">
         <v>388</v>
       </c>
-      <c r="R10" t="s">
+      <c r="Q10" t="s">
         <v>143</v>
       </c>
+      <c r="R10" s="8">
+        <v>0</v>
+      </c>
       <c r="S10" s="8">
         <v>0</v>
       </c>
@@ -3037,64 +3028,64 @@
         <v>0</v>
       </c>
       <c r="AI10" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="8">
         <v>1</v>
       </c>
-      <c r="AK10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="8">
-        <v>0</v>
-      </c>
       <c r="AX10" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AZ10" s="8">
         <v>0.5</v>
       </c>
       <c r="BA10" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="BB10" s="8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BB10" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.35">
@@ -3108,37 +3099,37 @@
         <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F11" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="7">
+      <c r="K11" s="7">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M11" t="s">
+      <c r="L11" t="s">
         <v>140</v>
       </c>
-      <c r="O11" t="s">
+      <c r="N11" t="s">
         <v>142</v>
       </c>
+      <c r="O11">
+        <v>3109</v>
+      </c>
       <c r="P11">
-        <v>3109</v>
-      </c>
-      <c r="Q11">
         <v>137</v>
       </c>
-      <c r="R11" t="s">
+      <c r="Q11" t="s">
         <v>143</v>
       </c>
+      <c r="R11" s="8">
+        <v>0.51</v>
+      </c>
       <c r="S11" s="8">
-        <v>0.51</v>
+        <v>0.16</v>
       </c>
       <c r="T11" s="8">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="U11" s="8">
         <v>0</v>
@@ -3153,19 +3144,19 @@
         <v>0</v>
       </c>
       <c r="Y11" s="8">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="Z11" s="8">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="8">
         <v>0</v>
       </c>
       <c r="AB11" s="8">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AC11" s="8">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="8">
         <v>0</v>
@@ -3183,28 +3174,28 @@
         <v>0</v>
       </c>
       <c r="AI11" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AJ11" s="8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="8">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="AL11" s="8">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="8">
         <v>0</v>
       </c>
       <c r="AN11" s="8">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="AO11" s="8">
-        <v>0.66</v>
+        <v>0.03</v>
       </c>
       <c r="AP11" s="8">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AQ11" s="8">
         <v>0</v>
@@ -3225,15 +3216,15 @@
         <v>0</v>
       </c>
       <c r="AW11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX11" s="8">
         <v>0.05</v>
       </c>
+      <c r="AX11" s="8"/>
       <c r="AY11" s="8"/>
       <c r="AZ11" s="8"/>
       <c r="BA11" s="8"/>
-      <c r="BB11" s="8"/>
+      <c r="BB11" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -3246,132 +3237,132 @@
         <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="E12" t="s">
-        <v>157</v>
-      </c>
-      <c r="F12" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="7">
+      <c r="K12" s="7">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="M12" t="s">
+      <c r="L12" t="s">
         <v>140</v>
       </c>
-      <c r="O12" t="s">
+      <c r="N12" t="s">
         <v>142</v>
       </c>
+      <c r="O12">
+        <v>158</v>
+      </c>
       <c r="P12">
-        <v>158</v>
-      </c>
-      <c r="Q12">
         <v>277</v>
       </c>
-      <c r="R12" t="s">
+      <c r="Q12" t="s">
         <v>143</v>
       </c>
+      <c r="R12" s="8">
+        <v>0.63</v>
+      </c>
       <c r="S12" s="8">
-        <v>0.63</v>
+        <v>0.11</v>
       </c>
       <c r="T12" s="8">
+        <v>0</v>
+      </c>
+      <c r="U12" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="V12" s="8">
+        <v>0</v>
+      </c>
+      <c r="W12" s="8">
+        <v>0</v>
+      </c>
+      <c r="X12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="AJ12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AL12" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="AM12" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="AN12" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="AO12" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="AP12" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AQ12" s="8">
         <v>0.11</v>
       </c>
-      <c r="U12" s="8">
-        <v>0</v>
-      </c>
-      <c r="V12" s="8">
-        <v>0.04</v>
-      </c>
-      <c r="W12" s="8">
-        <v>0</v>
-      </c>
-      <c r="X12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="8">
-        <v>0.04</v>
-      </c>
-      <c r="AA12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="8">
-        <v>0.18</v>
-      </c>
-      <c r="AK12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AM12" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="AN12" s="8">
-        <v>0.06</v>
-      </c>
-      <c r="AO12" s="8">
-        <v>0.23</v>
-      </c>
-      <c r="AP12" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="AQ12" s="8">
-        <v>0.1</v>
-      </c>
       <c r="AR12" s="8">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="AS12" s="8">
         <v>0</v>
       </c>
       <c r="AT12" s="8">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AU12" s="8">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AV12" s="8">
         <v>0</v>
       </c>
       <c r="AW12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX12" s="8">
         <v>0.12</v>
       </c>
+      <c r="AX12" s="8"/>
       <c r="AY12" s="8"/>
       <c r="AZ12" s="8"/>
       <c r="BA12" s="8"/>
-      <c r="BB12" s="8"/>
+      <c r="BB12" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -3384,37 +3375,37 @@
         <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="7">
+      <c r="K13" s="7">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M13" t="s">
+      <c r="L13" t="s">
         <v>140</v>
       </c>
-      <c r="O13" t="s">
+      <c r="N13" t="s">
         <v>142</v>
       </c>
+      <c r="O13">
+        <v>1281</v>
+      </c>
       <c r="P13">
-        <v>1281</v>
-      </c>
-      <c r="Q13">
         <v>110</v>
       </c>
-      <c r="R13" t="s">
+      <c r="Q13" t="s">
         <v>143</v>
       </c>
+      <c r="R13" s="8">
+        <v>0.64</v>
+      </c>
       <c r="S13" s="8">
-        <v>0.64</v>
+        <v>0.12</v>
       </c>
       <c r="T13" s="8">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="U13" s="8">
         <v>0</v>
@@ -3459,57 +3450,57 @@
         <v>0</v>
       </c>
       <c r="AI13" s="8">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="AJ13" s="8">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="8">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AL13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="AO13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="AS13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AM13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="8">
-        <v>0.83</v>
-      </c>
-      <c r="AP13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="AT13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AU13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX13" s="8">
-        <v>7.0000000000000007E-2</v>
-      </c>
+      <c r="AX13" s="8"/>
       <c r="AY13" s="8"/>
       <c r="AZ13" s="8"/>
       <c r="BA13" s="8"/>
-      <c r="BB13" s="8"/>
+      <c r="BB13" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -3522,132 +3513,132 @@
         <v>159</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="E14" t="s">
-        <v>160</v>
-      </c>
-      <c r="F14" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="7">
+      <c r="K14" s="7">
         <v>1.4E-2</v>
       </c>
-      <c r="M14" t="s">
+      <c r="L14" t="s">
         <v>140</v>
       </c>
-      <c r="O14" t="s">
+      <c r="N14" t="s">
         <v>142</v>
       </c>
+      <c r="O14">
+        <v>17000</v>
+      </c>
       <c r="P14">
-        <v>17000</v>
-      </c>
-      <c r="Q14">
         <v>100</v>
       </c>
-      <c r="R14" t="s">
+      <c r="Q14" t="s">
         <v>143</v>
       </c>
+      <c r="R14" s="8">
+        <v>0.63</v>
+      </c>
       <c r="S14" s="8">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="T14" s="8">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="U14" s="8">
+        <v>0</v>
+      </c>
+      <c r="V14" s="8">
+        <v>0</v>
+      </c>
+      <c r="W14" s="8">
+        <v>0</v>
+      </c>
+      <c r="X14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AC14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AI14" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="AJ14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="AL14" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="AM14" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AN14" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="AO14" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="AP14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AQ14" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="AR14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="AU14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="8">
         <v>0.04</v>
       </c>
-      <c r="V14" s="8">
-        <v>0</v>
-      </c>
-      <c r="W14" s="8">
-        <v>0</v>
-      </c>
-      <c r="X14" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="AD14" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="AJ14" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="AK14" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="AM14" s="8">
-        <v>0.18</v>
-      </c>
-      <c r="AN14" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="AO14" s="8">
-        <v>0.27</v>
-      </c>
-      <c r="AP14" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="AQ14" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AR14" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="AS14" s="8">
-        <v>0</v>
-      </c>
-      <c r="AT14" s="8">
-        <v>0</v>
-      </c>
-      <c r="AU14" s="8">
-        <v>0.06</v>
-      </c>
-      <c r="AV14" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW14" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX14" s="8">
-        <v>0.04</v>
-      </c>
+      <c r="AX14" s="8"/>
       <c r="AY14" s="8"/>
       <c r="AZ14" s="8"/>
       <c r="BA14" s="8"/>
-      <c r="BB14" s="8"/>
+      <c r="BB14" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -3660,132 +3651,132 @@
         <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" t="s">
         <v>33</v>
       </c>
-      <c r="L15" s="7">
+      <c r="K15" s="7">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="M15" t="s">
+      <c r="L15" t="s">
         <v>140</v>
       </c>
-      <c r="O15" t="s">
+      <c r="N15" t="s">
         <v>142</v>
       </c>
+      <c r="O15">
+        <v>4878</v>
+      </c>
       <c r="P15">
-        <v>4878</v>
-      </c>
-      <c r="Q15">
         <v>1321</v>
       </c>
-      <c r="R15" t="s">
+      <c r="Q15" t="s">
         <v>161</v>
       </c>
+      <c r="R15" s="8">
+        <v>0.68</v>
+      </c>
       <c r="S15" s="8">
-        <v>0.68</v>
+        <v>0.05</v>
       </c>
       <c r="T15" s="8">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="U15" s="8">
         <v>0.03</v>
       </c>
       <c r="V15" s="8">
+        <v>0</v>
+      </c>
+      <c r="W15" s="8">
+        <v>0</v>
+      </c>
+      <c r="X15" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="AJ15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AL15" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="AM15" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AN15" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AO15" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="AP15" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AQ15" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="AR15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="8">
         <v>0.03</v>
       </c>
-      <c r="W15" s="8">
-        <v>0</v>
-      </c>
-      <c r="X15" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="8">
-        <v>0.21</v>
-      </c>
-      <c r="AK15" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="AM15" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="AN15" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="AO15" s="8">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AP15" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="AQ15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AR15" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="AS15" s="8">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="8">
-        <v>0</v>
-      </c>
       <c r="AU15" s="8">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AV15" s="8">
         <v>0</v>
       </c>
       <c r="AW15" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX15" s="8">
         <v>0.11</v>
       </c>
+      <c r="AX15" s="8"/>
       <c r="AY15" s="8"/>
       <c r="AZ15" s="8"/>
       <c r="BA15" s="8"/>
-      <c r="BB15" s="8"/>
+      <c r="BB15" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -3798,37 +3789,37 @@
         <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="7">
+      <c r="K16" s="7">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="M16" t="s">
+      <c r="L16" t="s">
         <v>140</v>
       </c>
-      <c r="O16" t="s">
+      <c r="N16" t="s">
         <v>142</v>
       </c>
+      <c r="O16">
+        <v>4437</v>
+      </c>
       <c r="P16">
-        <v>4437</v>
-      </c>
-      <c r="Q16">
         <v>180</v>
       </c>
-      <c r="R16" t="s">
+      <c r="Q16" t="s">
         <v>143</v>
       </c>
+      <c r="R16" s="8">
+        <v>0</v>
+      </c>
       <c r="S16" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" s="8">
         <v>0</v>
@@ -3879,25 +3870,25 @@
         <v>0</v>
       </c>
       <c r="AK16" s="8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AL16" s="8">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="AM16" s="8">
         <v>0.17</v>
       </c>
       <c r="AN16" s="8">
-        <v>0.17</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AO16" s="8">
-        <v>0.14000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AP16" s="8">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AQ16" s="8">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AR16" s="8">
         <v>0</v>
@@ -3915,15 +3906,15 @@
         <v>0</v>
       </c>
       <c r="AW16" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX16" s="8">
         <v>0.15</v>
       </c>
+      <c r="AX16" s="8"/>
       <c r="AY16" s="8"/>
       <c r="AZ16" s="8"/>
       <c r="BA16" s="8"/>
-      <c r="BB16" s="8"/>
+      <c r="BB16" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
@@ -3936,40 +3927,40 @@
         <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" t="s">
         <v>37</v>
       </c>
-      <c r="L17" s="7">
+      <c r="K17" s="7">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="M17" t="s">
+      <c r="L17" t="s">
         <v>140</v>
       </c>
-      <c r="O17" t="s">
+      <c r="N17" t="s">
         <v>142</v>
       </c>
+      <c r="O17">
+        <v>2997</v>
+      </c>
       <c r="P17">
-        <v>2997</v>
-      </c>
-      <c r="Q17">
         <v>118</v>
       </c>
-      <c r="R17" t="s">
+      <c r="Q17" t="s">
         <v>143</v>
       </c>
+      <c r="R17" s="8">
+        <v>0.68</v>
+      </c>
       <c r="S17" s="8">
-        <v>0.68</v>
+        <v>0.03</v>
       </c>
       <c r="T17" s="8">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="U17" s="8">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="V17" s="8">
         <v>0</v>
@@ -3981,10 +3972,10 @@
         <v>0</v>
       </c>
       <c r="Y17" s="8">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="Z17" s="8">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="8">
         <v>0</v>
@@ -4011,10 +4002,10 @@
         <v>0</v>
       </c>
       <c r="AI17" s="8">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="AJ17" s="8">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="AK17" s="8">
         <v>0</v>
@@ -4029,10 +4020,10 @@
         <v>0</v>
       </c>
       <c r="AO17" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP17" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ17" s="8">
         <v>0</v>
@@ -4055,13 +4046,13 @@
       <c r="AW17" s="8">
         <v>0</v>
       </c>
-      <c r="AX17" s="8">
-        <v>0</v>
-      </c>
+      <c r="AX17" s="8"/>
       <c r="AY17" s="8"/>
       <c r="AZ17" s="8"/>
       <c r="BA17" s="8"/>
-      <c r="BB17" s="8"/>
+      <c r="BB17" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -4074,40 +4065,40 @@
         <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" t="s">
         <v>39</v>
       </c>
-      <c r="L18" s="7">
+      <c r="K18" s="7">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="M18" t="s">
+      <c r="L18" t="s">
         <v>140</v>
       </c>
-      <c r="O18" t="s">
+      <c r="N18" t="s">
         <v>142</v>
       </c>
+      <c r="O18">
+        <v>541</v>
+      </c>
       <c r="P18">
-        <v>541</v>
-      </c>
-      <c r="Q18">
         <v>74</v>
       </c>
-      <c r="R18" t="s">
+      <c r="Q18" t="s">
         <v>143</v>
       </c>
+      <c r="R18" s="8">
+        <v>0.62</v>
+      </c>
       <c r="S18" s="8">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="T18" s="8">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="U18" s="8">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="V18" s="8">
         <v>0</v>
@@ -4140,19 +4131,19 @@
         <v>0</v>
       </c>
       <c r="AF18" s="8">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AG18" s="8">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="AH18" s="8">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AI18" s="8">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AJ18" s="8">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="8">
         <v>0</v>
@@ -4185,21 +4176,21 @@
         <v>0</v>
       </c>
       <c r="AU18" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV18" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW18" s="8">
         <v>0</v>
       </c>
-      <c r="AX18" s="8">
-        <v>0</v>
-      </c>
+      <c r="AX18" s="8"/>
       <c r="AY18" s="8"/>
       <c r="AZ18" s="8"/>
       <c r="BA18" s="8"/>
-      <c r="BB18" s="8"/>
+      <c r="BB18" s="8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
@@ -4212,40 +4203,40 @@
         <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" t="s">
         <v>41</v>
       </c>
-      <c r="L19" s="7">
+      <c r="K19" s="7">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="M19" t="s">
+      <c r="L19" t="s">
         <v>140</v>
       </c>
-      <c r="O19" t="s">
+      <c r="N19" t="s">
         <v>142</v>
       </c>
+      <c r="O19">
+        <v>364</v>
+      </c>
       <c r="P19">
-        <v>364</v>
-      </c>
-      <c r="Q19">
         <v>154</v>
       </c>
-      <c r="R19" t="s">
+      <c r="Q19" t="s">
         <v>161</v>
       </c>
+      <c r="R19" s="8">
+        <v>0.43</v>
+      </c>
       <c r="S19" s="8">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="T19" s="8">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="U19" s="8">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="V19" s="8">
         <v>0</v>
@@ -4281,63 +4272,63 @@
         <v>0</v>
       </c>
       <c r="AG19" s="8">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AH19" s="8">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="AI19" s="8">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
       <c r="AJ19" s="8">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="AK19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="8">
         <v>1</v>
       </c>
-      <c r="AL19" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN19" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO19" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP19" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="8">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="8">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="8">
-        <v>0</v>
-      </c>
-      <c r="AU19" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV19" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW19" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX19" s="8">
-        <v>1</v>
-      </c>
+      <c r="AX19" s="8"/>
       <c r="AY19" s="8"/>
       <c r="AZ19" s="8"/>
       <c r="BA19" s="8"/>
-      <c r="BB19" s="8"/>
+      <c r="BB19" s="8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
@@ -4350,29 +4341,29 @@
         <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" t="s">
         <v>163</v>
       </c>
-      <c r="L20" s="7">
+      <c r="K20" s="7">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="M20" t="s">
+      <c r="L20" t="s">
         <v>140</v>
       </c>
-      <c r="O20" t="s">
+      <c r="N20" t="s">
         <v>142</v>
       </c>
+      <c r="O20">
+        <v>78</v>
+      </c>
       <c r="P20">
-        <v>78</v>
-      </c>
-      <c r="Q20">
         <v>494</v>
       </c>
-      <c r="R20" t="s">
+      <c r="Q20" t="s">
         <v>143</v>
       </c>
+      <c r="R20" s="8">
+        <v>0</v>
+      </c>
       <c r="S20" s="8">
         <v>0</v>
       </c>
@@ -4395,10 +4386,10 @@
         <v>0</v>
       </c>
       <c r="Z20" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="8">
         <v>0</v>
@@ -4428,51 +4419,51 @@
         <v>0</v>
       </c>
       <c r="AK20" s="8">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AL20" s="8">
+        <v>0.19</v>
+      </c>
+      <c r="AM20" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AN20" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="AO20" s="8">
         <v>0.04</v>
       </c>
-      <c r="AM20" s="8">
-        <v>0.19</v>
-      </c>
-      <c r="AN20" s="8">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AO20" s="8">
-        <v>0.08</v>
-      </c>
       <c r="AP20" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="AQ20" s="8">
+        <v>0.22</v>
+      </c>
+      <c r="AR20" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="AS20" s="8">
         <v>0.04</v>
       </c>
-      <c r="AQ20" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="AR20" s="8">
-        <v>0.22</v>
-      </c>
-      <c r="AS20" s="8">
+      <c r="AT20" s="8">
         <v>0.01</v>
       </c>
-      <c r="AT20" s="8">
-        <v>0.04</v>
-      </c>
       <c r="AU20" s="8">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AV20" s="8">
         <v>0</v>
       </c>
       <c r="AW20" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX20" s="8">
         <v>0.06</v>
       </c>
+      <c r="AX20" s="8"/>
       <c r="AY20" s="8"/>
       <c r="AZ20" s="8"/>
       <c r="BA20" s="8"/>
-      <c r="BB20" s="8"/>
+      <c r="BB20" s="8" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
@@ -4485,32 +4476,32 @@
         <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" t="s">
         <v>164</v>
       </c>
-      <c r="J21" s="5">
+      <c r="I21" s="5">
         <v>46752</v>
       </c>
-      <c r="L21" s="7">
+      <c r="K21" s="7">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="M21" t="s">
+      <c r="L21" t="s">
         <v>140</v>
       </c>
-      <c r="O21" t="s">
+      <c r="N21" t="s">
         <v>142</v>
       </c>
+      <c r="O21">
+        <v>8</v>
+      </c>
       <c r="P21">
-        <v>8</v>
-      </c>
-      <c r="Q21">
         <v>208</v>
       </c>
-      <c r="R21" t="s">
+      <c r="Q21" t="s">
         <v>143</v>
       </c>
+      <c r="R21" s="8">
+        <v>0</v>
+      </c>
       <c r="S21" s="8">
         <v>0</v>
       </c>
@@ -4560,64 +4551,64 @@
         <v>0</v>
       </c>
       <c r="AI21" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="8">
         <v>1</v>
       </c>
-      <c r="AK21" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP21" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="8">
-        <v>0</v>
-      </c>
-      <c r="AS21" s="8">
-        <v>0</v>
-      </c>
-      <c r="AT21" s="8">
-        <v>0</v>
-      </c>
-      <c r="AU21" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV21" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW21" s="8">
-        <v>0</v>
-      </c>
       <c r="AX21" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AZ21" s="8">
         <v>0.5</v>
       </c>
       <c r="BA21" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="BB21" s="8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BB21" s="8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:54" x14ac:dyDescent="0.35">
@@ -4631,32 +4622,32 @@
         <v>98</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" t="s">
         <v>165</v>
       </c>
-      <c r="J22" s="5">
+      <c r="I22" s="5">
         <v>46752</v>
       </c>
-      <c r="L22" s="7">
+      <c r="K22" s="7">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="M22" t="s">
+      <c r="L22" t="s">
         <v>141</v>
       </c>
-      <c r="O22" t="s">
+      <c r="N22" t="s">
         <v>142</v>
       </c>
+      <c r="O22">
+        <v>8</v>
+      </c>
       <c r="P22">
-        <v>8</v>
-      </c>
-      <c r="Q22">
         <v>208</v>
       </c>
-      <c r="R22" t="s">
+      <c r="Q22" t="s">
         <v>143</v>
       </c>
+      <c r="R22" s="8">
+        <v>0</v>
+      </c>
       <c r="S22" s="8">
         <v>0</v>
       </c>
@@ -4706,64 +4697,64 @@
         <v>0</v>
       </c>
       <c r="AI22" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="8">
         <v>1</v>
       </c>
-      <c r="AK22" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM22" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN22" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO22" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP22" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ22" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR22" s="8">
-        <v>0</v>
-      </c>
-      <c r="AS22" s="8">
-        <v>0</v>
-      </c>
-      <c r="AT22" s="8">
-        <v>0</v>
-      </c>
-      <c r="AU22" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV22" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW22" s="8">
-        <v>0</v>
-      </c>
       <c r="AX22" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AZ22" s="8">
         <v>0.5</v>
       </c>
       <c r="BA22" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="BB22" s="8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BB22" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:54" x14ac:dyDescent="0.35">
@@ -4777,129 +4768,129 @@
         <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" t="s">
         <v>166</v>
       </c>
-      <c r="L23" s="7">
+      <c r="K23" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M23" t="s">
+      <c r="L23" t="s">
         <v>140</v>
       </c>
-      <c r="O23" t="s">
+      <c r="N23" t="s">
         <v>142</v>
       </c>
+      <c r="O23">
+        <v>2202</v>
+      </c>
       <c r="P23">
-        <v>2202</v>
-      </c>
-      <c r="Q23">
         <v>277</v>
       </c>
-      <c r="R23" t="s">
+      <c r="Q23" t="s">
         <v>143</v>
       </c>
+      <c r="R23" s="8">
+        <v>0.63</v>
+      </c>
       <c r="S23" s="8">
-        <v>0.63</v>
+        <v>0.1</v>
       </c>
       <c r="T23" s="8">
+        <v>0</v>
+      </c>
+      <c r="U23" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="V23" s="8">
+        <v>0</v>
+      </c>
+      <c r="W23" s="8">
+        <v>0</v>
+      </c>
+      <c r="X23" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Z23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="AJ23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AL23" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="AM23" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="AN23" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="AO23" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="AP23" s="8">
         <v>0.1</v>
       </c>
-      <c r="U23" s="8">
-        <v>0</v>
-      </c>
-      <c r="V23" s="8">
-        <v>0.04</v>
-      </c>
-      <c r="W23" s="8">
-        <v>0</v>
-      </c>
-      <c r="X23" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AA23" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="8">
-        <v>0.18</v>
-      </c>
-      <c r="AK23" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AM23" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="AN23" s="8">
-        <v>0.06</v>
-      </c>
-      <c r="AO23" s="8">
-        <v>0.23</v>
-      </c>
-      <c r="AP23" s="8">
-        <v>0.15</v>
-      </c>
       <c r="AQ23" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="AR23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="AT23" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="AU23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="8">
         <v>0.1</v>
       </c>
-      <c r="AR23" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="AS23" s="8">
-        <v>0</v>
-      </c>
-      <c r="AT23" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="AU23" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="AV23" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW23" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX23" s="8">
-        <v>0.1</v>
-      </c>
+      <c r="AX23" s="8"/>
       <c r="AY23" s="8"/>
       <c r="AZ23" s="8"/>
       <c r="BA23" s="8"/>
-      <c r="BB23" s="8"/>
+      <c r="BB23" s="8" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="24" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
@@ -4912,29 +4903,29 @@
         <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" t="s">
         <v>167</v>
       </c>
-      <c r="L24" s="7">
+      <c r="K24" s="7">
         <v>2.8E-3</v>
       </c>
-      <c r="M24" t="s">
+      <c r="L24" t="s">
         <v>140</v>
       </c>
-      <c r="O24" t="s">
+      <c r="N24" t="s">
         <v>142</v>
       </c>
+      <c r="O24">
+        <v>3265</v>
+      </c>
       <c r="P24">
-        <v>3265</v>
-      </c>
-      <c r="Q24">
         <v>560</v>
       </c>
-      <c r="R24" t="s">
+      <c r="Q24" t="s">
         <v>143</v>
       </c>
+      <c r="R24" s="8">
+        <v>0</v>
+      </c>
       <c r="S24" s="8">
         <v>0</v>
       </c>
@@ -4957,10 +4948,10 @@
         <v>0</v>
       </c>
       <c r="Z24" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="8">
         <v>0</v>
@@ -4990,51 +4981,51 @@
         <v>0</v>
       </c>
       <c r="AK24" s="8">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AL24" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="AM24" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="AN24" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="AO24" s="8">
         <v>0.04</v>
       </c>
-      <c r="AM24" s="8">
-        <v>0.18</v>
-      </c>
-      <c r="AN24" s="8">
-        <v>0.27</v>
-      </c>
-      <c r="AO24" s="8">
-        <v>0.08</v>
-      </c>
       <c r="AP24" s="8">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AQ24" s="8">
+        <v>0.22</v>
+      </c>
+      <c r="AR24" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="AS24" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AT24" s="8">
         <v>0.02</v>
       </c>
-      <c r="AR24" s="8">
-        <v>0.22</v>
-      </c>
-      <c r="AS24" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="AT24" s="8">
-        <v>0.05</v>
-      </c>
       <c r="AU24" s="8">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AV24" s="8">
         <v>0</v>
       </c>
       <c r="AW24" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX24" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="AX24" s="8"/>
       <c r="AY24" s="8"/>
       <c r="AZ24" s="8"/>
       <c r="BA24" s="8"/>
-      <c r="BB24" s="8"/>
+      <c r="BB24" s="8" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="25" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
@@ -5047,136 +5038,136 @@
         <v>98</v>
       </c>
       <c r="D25" t="s">
+        <v>168</v>
+      </c>
+      <c r="K25" s="7">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="L25" t="s">
+        <v>140</v>
+      </c>
+      <c r="N25" t="s">
+        <v>142</v>
+      </c>
+      <c r="O25">
+        <v>494</v>
+      </c>
+      <c r="P25">
+        <v>49</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>161</v>
+      </c>
+      <c r="R25" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="S25" s="8">
+        <v>0</v>
+      </c>
+      <c r="T25" s="8">
+        <v>0</v>
+      </c>
+      <c r="U25" s="8">
+        <v>0</v>
+      </c>
+      <c r="V25" s="8">
+        <v>0</v>
+      </c>
+      <c r="W25" s="8">
+        <v>0</v>
+      </c>
+      <c r="X25" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="8">
+        <v>0.17</v>
+      </c>
+      <c r="AJ25" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="8">
+        <v>1</v>
+      </c>
+      <c r="AX25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ25" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA25" s="8">
+        <v>1</v>
+      </c>
+      <c r="BB25" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="E25" t="s">
-        <v>168</v>
-      </c>
-      <c r="L25" s="7">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="M25" t="s">
-        <v>140</v>
-      </c>
-      <c r="O25" t="s">
-        <v>142</v>
-      </c>
-      <c r="P25">
-        <v>494</v>
-      </c>
-      <c r="Q25">
-        <v>49</v>
-      </c>
-      <c r="R25" t="s">
-        <v>161</v>
-      </c>
-      <c r="S25" s="8">
-        <v>0.83</v>
-      </c>
-      <c r="T25" s="8">
-        <v>0</v>
-      </c>
-      <c r="U25" s="8">
-        <v>0</v>
-      </c>
-      <c r="V25" s="8">
-        <v>0</v>
-      </c>
-      <c r="W25" s="8">
-        <v>0</v>
-      </c>
-      <c r="X25" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="8">
-        <v>0.17</v>
-      </c>
-      <c r="AK25" s="8">
-        <v>1</v>
-      </c>
-      <c r="AL25" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM25" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN25" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO25" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP25" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ25" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR25" s="8">
-        <v>0</v>
-      </c>
-      <c r="AS25" s="8">
-        <v>0</v>
-      </c>
-      <c r="AT25" s="8">
-        <v>0</v>
-      </c>
-      <c r="AU25" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV25" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW25" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX25" s="8">
-        <v>1</v>
-      </c>
-      <c r="AY25" s="8">
-        <v>0</v>
-      </c>
-      <c r="AZ25" s="8">
-        <v>0</v>
-      </c>
-      <c r="BA25" s="8">
-        <v>0</v>
-      </c>
-      <c r="BB25" s="8">
-        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:54" x14ac:dyDescent="0.35">
@@ -5190,29 +5181,29 @@
         <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>108</v>
-      </c>
-      <c r="E26" t="s">
         <v>169</v>
       </c>
-      <c r="L26" s="7">
+      <c r="K26" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M26" t="s">
+      <c r="L26" t="s">
         <v>140</v>
       </c>
-      <c r="O26" t="s">
+      <c r="N26" t="s">
         <v>142</v>
       </c>
+      <c r="O26">
+        <v>140</v>
+      </c>
       <c r="P26">
-        <v>140</v>
-      </c>
-      <c r="Q26">
         <v>72</v>
       </c>
-      <c r="R26" t="s">
+      <c r="Q26" t="s">
         <v>143</v>
       </c>
+      <c r="R26" s="8">
+        <v>0</v>
+      </c>
       <c r="S26" s="8">
         <v>0</v>
       </c>
@@ -5229,22 +5220,22 @@
         <v>0</v>
       </c>
       <c r="X26" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Y26" s="8">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="Z26" s="8">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="8">
         <v>0</v>
       </c>
       <c r="AB26" s="8">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AC26" s="8">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="8">
         <v>0</v>
@@ -5259,13 +5250,13 @@
         <v>0</v>
       </c>
       <c r="AH26" s="8">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="AI26" s="8">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="AJ26" s="8">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AK26" s="8">
         <v>0</v>
@@ -5289,10 +5280,10 @@
         <v>0</v>
       </c>
       <c r="AR26" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS26" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="8">
         <v>0</v>
@@ -5306,13 +5297,13 @@
       <c r="AW26" s="8">
         <v>0</v>
       </c>
-      <c r="AX26" s="8">
-        <v>0</v>
-      </c>
+      <c r="AX26" s="8"/>
       <c r="AY26" s="8"/>
       <c r="AZ26" s="8"/>
       <c r="BA26" s="8"/>
-      <c r="BB26" s="8"/>
+      <c r="BB26" s="8" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="27" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
@@ -5327,126 +5318,126 @@
       <c r="D27" t="s">
         <v>109</v>
       </c>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
+        <v>172</v>
+      </c>
+      <c r="H27" s="9">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="I27" s="5">
+        <v>46248</v>
+      </c>
+      <c r="K27" s="7"/>
+      <c r="R27" s="8">
+        <v>0</v>
+      </c>
+      <c r="S27" s="8">
+        <v>0</v>
+      </c>
+      <c r="T27" s="8">
+        <v>0</v>
+      </c>
+      <c r="U27" s="8">
+        <v>0</v>
+      </c>
+      <c r="V27" s="8">
+        <v>1</v>
+      </c>
+      <c r="W27" s="8">
+        <v>0</v>
+      </c>
+      <c r="X27" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="8">
+        <v>1</v>
+      </c>
+      <c r="AX27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AY27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA27" s="8">
+        <v>1</v>
+      </c>
+      <c r="BB27" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="H27" t="s">
-        <v>172</v>
-      </c>
-      <c r="I27" s="9">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="J27" s="5">
-        <v>46248</v>
-      </c>
-      <c r="L27" s="7"/>
-      <c r="S27" s="8">
-        <v>0</v>
-      </c>
-      <c r="T27" s="8">
-        <v>0</v>
-      </c>
-      <c r="U27" s="8">
-        <v>0</v>
-      </c>
-      <c r="V27" s="8">
-        <v>0</v>
-      </c>
-      <c r="W27" s="8">
-        <v>1</v>
-      </c>
-      <c r="X27" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AS27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AT27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AU27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX27" s="8">
-        <v>1</v>
-      </c>
-      <c r="AY27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AZ27" s="8">
-        <v>0</v>
-      </c>
-      <c r="BA27" s="8">
-        <v>0</v>
-      </c>
-      <c r="BB27" s="8">
-        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:54" x14ac:dyDescent="0.35">
@@ -5462,126 +5453,126 @@
       <c r="D28" t="s">
         <v>110</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
+        <v>158</v>
+      </c>
+      <c r="H28" s="9">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="I28" s="5">
+        <v>46063</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="R28" s="8">
+        <v>0</v>
+      </c>
+      <c r="S28" s="8">
+        <v>0</v>
+      </c>
+      <c r="T28" s="8">
+        <v>0</v>
+      </c>
+      <c r="U28" s="8">
+        <v>0</v>
+      </c>
+      <c r="V28" s="8">
+        <v>1</v>
+      </c>
+      <c r="W28" s="8">
+        <v>0</v>
+      </c>
+      <c r="X28" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="8">
+        <v>1</v>
+      </c>
+      <c r="AX28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA28" s="8">
+        <v>1</v>
+      </c>
+      <c r="BB28" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="H28" t="s">
-        <v>158</v>
-      </c>
-      <c r="I28" s="9">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="J28" s="5">
-        <v>46063</v>
-      </c>
-      <c r="L28" s="7"/>
-      <c r="S28" s="8">
-        <v>0</v>
-      </c>
-      <c r="T28" s="8">
-        <v>0</v>
-      </c>
-      <c r="U28" s="8">
-        <v>0</v>
-      </c>
-      <c r="V28" s="8">
-        <v>0</v>
-      </c>
-      <c r="W28" s="8">
-        <v>1</v>
-      </c>
-      <c r="X28" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AS28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AT28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AU28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX28" s="8">
-        <v>1</v>
-      </c>
-      <c r="AY28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AZ28" s="8">
-        <v>0</v>
-      </c>
-      <c r="BA28" s="8">
-        <v>0</v>
-      </c>
-      <c r="BB28" s="8">
-        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:54" x14ac:dyDescent="0.35">
@@ -5597,126 +5588,126 @@
       <c r="D29" t="s">
         <v>111</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
+        <v>172</v>
+      </c>
+      <c r="H29" s="9">
+        <v>2.375E-2</v>
+      </c>
+      <c r="I29" s="5">
+        <v>46531</v>
+      </c>
+      <c r="K29" s="7"/>
+      <c r="R29" s="8">
+        <v>0</v>
+      </c>
+      <c r="S29" s="8">
+        <v>0</v>
+      </c>
+      <c r="T29" s="8">
+        <v>0</v>
+      </c>
+      <c r="U29" s="8">
+        <v>0</v>
+      </c>
+      <c r="V29" s="8">
+        <v>0</v>
+      </c>
+      <c r="W29" s="8">
+        <v>0</v>
+      </c>
+      <c r="X29" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="8">
+        <v>1</v>
+      </c>
+      <c r="AX29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AY29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ29" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA29" s="8">
+        <v>1</v>
+      </c>
+      <c r="BB29" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="H29" t="s">
-        <v>172</v>
-      </c>
-      <c r="I29" s="9">
-        <v>2.375E-2</v>
-      </c>
-      <c r="J29" s="5">
-        <v>46531</v>
-      </c>
-      <c r="L29" s="7"/>
-      <c r="S29" s="8">
-        <v>0</v>
-      </c>
-      <c r="T29" s="8">
-        <v>0</v>
-      </c>
-      <c r="U29" s="8">
-        <v>0</v>
-      </c>
-      <c r="V29" s="8">
-        <v>0</v>
-      </c>
-      <c r="W29" s="8">
-        <v>0</v>
-      </c>
-      <c r="X29" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="8">
-        <v>1</v>
-      </c>
-      <c r="AK29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AS29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AT29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AU29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX29" s="8">
-        <v>1</v>
-      </c>
-      <c r="AY29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AZ29" s="8">
-        <v>0</v>
-      </c>
-      <c r="BA29" s="8">
-        <v>0</v>
-      </c>
-      <c r="BB29" s="8">
-        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:54" x14ac:dyDescent="0.35">
@@ -5732,126 +5723,126 @@
       <c r="D30" t="s">
         <v>112</v>
       </c>
-      <c r="E30" t="s">
+      <c r="G30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H30" s="9">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="I30" s="5">
+        <v>46066</v>
+      </c>
+      <c r="K30" s="7"/>
+      <c r="R30" s="8">
+        <v>0</v>
+      </c>
+      <c r="S30" s="8">
+        <v>0</v>
+      </c>
+      <c r="T30" s="8">
+        <v>0</v>
+      </c>
+      <c r="U30" s="8">
+        <v>0</v>
+      </c>
+      <c r="V30" s="8">
+        <v>0</v>
+      </c>
+      <c r="W30" s="8">
+        <v>0</v>
+      </c>
+      <c r="X30" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW30" s="8">
+        <v>1</v>
+      </c>
+      <c r="AX30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AY30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ30" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA30" s="8">
+        <v>1</v>
+      </c>
+      <c r="BB30" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="H30" t="s">
-        <v>174</v>
-      </c>
-      <c r="I30" s="9">
-        <v>1.8749999999999999E-2</v>
-      </c>
-      <c r="J30" s="5">
-        <v>46066</v>
-      </c>
-      <c r="L30" s="7"/>
-      <c r="S30" s="8">
-        <v>0</v>
-      </c>
-      <c r="T30" s="8">
-        <v>0</v>
-      </c>
-      <c r="U30" s="8">
-        <v>0</v>
-      </c>
-      <c r="V30" s="8">
-        <v>0</v>
-      </c>
-      <c r="W30" s="8">
-        <v>0</v>
-      </c>
-      <c r="X30" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AS30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AT30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AU30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX30" s="8">
-        <v>1</v>
-      </c>
-      <c r="AY30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AZ30" s="8">
-        <v>0</v>
-      </c>
-      <c r="BA30" s="8">
-        <v>0</v>
-      </c>
-      <c r="BB30" s="8">
-        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:54" x14ac:dyDescent="0.35">
@@ -5867,126 +5858,126 @@
       <c r="D31" t="s">
         <v>113</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
+        <v>172</v>
+      </c>
+      <c r="H31" s="9">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="I31" s="5">
+        <v>46599</v>
+      </c>
+      <c r="K31" s="7"/>
+      <c r="R31" s="8">
+        <v>1</v>
+      </c>
+      <c r="S31" s="8">
+        <v>0</v>
+      </c>
+      <c r="T31" s="8">
+        <v>0</v>
+      </c>
+      <c r="U31" s="8">
+        <v>0</v>
+      </c>
+      <c r="V31" s="8">
+        <v>0</v>
+      </c>
+      <c r="W31" s="8">
+        <v>0</v>
+      </c>
+      <c r="X31" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW31" s="8">
+        <v>1</v>
+      </c>
+      <c r="AX31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AY31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ31" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA31" s="8">
+        <v>1</v>
+      </c>
+      <c r="BB31" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="H31" t="s">
-        <v>172</v>
-      </c>
-      <c r="I31" s="9">
-        <v>3.7499999999999999E-3</v>
-      </c>
-      <c r="J31" s="5">
-        <v>46599</v>
-      </c>
-      <c r="L31" s="7"/>
-      <c r="S31" s="8">
-        <v>1</v>
-      </c>
-      <c r="T31" s="8">
-        <v>0</v>
-      </c>
-      <c r="U31" s="8">
-        <v>0</v>
-      </c>
-      <c r="V31" s="8">
-        <v>0</v>
-      </c>
-      <c r="W31" s="8">
-        <v>0</v>
-      </c>
-      <c r="X31" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AS31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AT31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AU31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX31" s="8">
-        <v>1</v>
-      </c>
-      <c r="AY31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AZ31" s="8">
-        <v>0</v>
-      </c>
-      <c r="BA31" s="8">
-        <v>0</v>
-      </c>
-      <c r="BB31" s="8">
-        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:54" x14ac:dyDescent="0.35">
@@ -6002,126 +5993,126 @@
       <c r="D32" t="s">
         <v>114</v>
       </c>
-      <c r="E32" t="s">
+      <c r="G32" t="s">
+        <v>173</v>
+      </c>
+      <c r="H32" s="9">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I32" s="5">
+        <v>46888</v>
+      </c>
+      <c r="K32" s="7"/>
+      <c r="R32" s="8">
+        <v>0</v>
+      </c>
+      <c r="S32" s="8">
+        <v>0</v>
+      </c>
+      <c r="T32" s="8">
+        <v>0</v>
+      </c>
+      <c r="U32" s="8">
+        <v>0</v>
+      </c>
+      <c r="V32" s="8">
+        <v>0</v>
+      </c>
+      <c r="W32" s="8">
+        <v>0</v>
+      </c>
+      <c r="X32" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="8">
+        <v>1</v>
+      </c>
+      <c r="AX32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AY32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ32" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA32" s="8">
+        <v>1</v>
+      </c>
+      <c r="BB32" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="H32" t="s">
-        <v>173</v>
-      </c>
-      <c r="I32" s="9">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="J32" s="5">
-        <v>46888</v>
-      </c>
-      <c r="L32" s="7"/>
-      <c r="S32" s="8">
-        <v>0</v>
-      </c>
-      <c r="T32" s="8">
-        <v>0</v>
-      </c>
-      <c r="U32" s="8">
-        <v>0</v>
-      </c>
-      <c r="V32" s="8">
-        <v>0</v>
-      </c>
-      <c r="W32" s="8">
-        <v>0</v>
-      </c>
-      <c r="X32" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AS32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AT32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AU32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX32" s="8">
-        <v>1</v>
-      </c>
-      <c r="AY32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AZ32" s="8">
-        <v>0</v>
-      </c>
-      <c r="BA32" s="8">
-        <v>0</v>
-      </c>
-      <c r="BB32" s="8">
-        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:54" x14ac:dyDescent="0.35">
@@ -6137,126 +6128,126 @@
       <c r="D33" t="s">
         <v>115</v>
       </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
+        <v>173</v>
+      </c>
+      <c r="H33" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I33" s="5">
+        <v>46157</v>
+      </c>
+      <c r="K33" s="7"/>
+      <c r="R33" s="8">
+        <v>0</v>
+      </c>
+      <c r="S33" s="8">
+        <v>0</v>
+      </c>
+      <c r="T33" s="8">
+        <v>0</v>
+      </c>
+      <c r="U33" s="8">
+        <v>0</v>
+      </c>
+      <c r="V33" s="8">
+        <v>0</v>
+      </c>
+      <c r="W33" s="8">
+        <v>0</v>
+      </c>
+      <c r="X33" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW33" s="8">
+        <v>1</v>
+      </c>
+      <c r="AX33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AY33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ33" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA33" s="8">
+        <v>1</v>
+      </c>
+      <c r="BB33" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="H33" t="s">
-        <v>173</v>
-      </c>
-      <c r="I33" s="9">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J33" s="5">
-        <v>46157</v>
-      </c>
-      <c r="L33" s="7"/>
-      <c r="S33" s="8">
-        <v>0</v>
-      </c>
-      <c r="T33" s="8">
-        <v>0</v>
-      </c>
-      <c r="U33" s="8">
-        <v>0</v>
-      </c>
-      <c r="V33" s="8">
-        <v>0</v>
-      </c>
-      <c r="W33" s="8">
-        <v>0</v>
-      </c>
-      <c r="X33" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AS33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AT33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AU33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX33" s="8">
-        <v>1</v>
-      </c>
-      <c r="AY33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AZ33" s="8">
-        <v>0</v>
-      </c>
-      <c r="BA33" s="8">
-        <v>0</v>
-      </c>
-      <c r="BB33" s="8">
-        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:54" x14ac:dyDescent="0.35">
@@ -6272,10 +6263,10 @@
       <c r="D34" t="s">
         <v>124</v>
       </c>
-      <c r="E34" t="s">
-        <v>124</v>
-      </c>
-      <c r="L34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="R34" s="8">
+        <v>0</v>
+      </c>
       <c r="S34" s="8">
         <v>0</v>
       </c>
@@ -6304,85 +6295,85 @@
         <v>0</v>
       </c>
       <c r="AB34" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AC34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="8">
         <v>0.5</v>
       </c>
-      <c r="AD34" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="8">
-        <v>0</v>
-      </c>
       <c r="AI34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW34" s="8">
+        <v>1</v>
+      </c>
+      <c r="AX34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AY34" s="8">
         <v>0.5</v>
-      </c>
-      <c r="AJ34" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK34" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL34" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM34" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN34" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO34" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP34" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ34" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR34" s="8">
-        <v>0</v>
-      </c>
-      <c r="AS34" s="8">
-        <v>0</v>
-      </c>
-      <c r="AT34" s="8">
-        <v>0</v>
-      </c>
-      <c r="AU34" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV34" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW34" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX34" s="8">
-        <v>1</v>
-      </c>
-      <c r="AY34" s="8">
-        <v>0</v>
       </c>
       <c r="AZ34" s="8">
         <v>0.5</v>
       </c>
       <c r="BA34" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="BB34" s="8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BB34" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:54" x14ac:dyDescent="0.35">
@@ -6398,10 +6389,10 @@
       <c r="D35" t="s">
         <v>128</v>
       </c>
-      <c r="E35" t="s">
-        <v>128</v>
-      </c>
-      <c r="L35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="R35" s="8">
+        <v>0</v>
+      </c>
       <c r="S35" s="8">
         <v>0</v>
       </c>
@@ -6430,85 +6421,85 @@
         <v>0</v>
       </c>
       <c r="AB35" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AC35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="8">
         <v>0.5</v>
       </c>
-      <c r="AD35" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH35" s="8">
-        <v>0</v>
-      </c>
       <c r="AI35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW35" s="8">
+        <v>1</v>
+      </c>
+      <c r="AX35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AY35" s="8">
         <v>0.5</v>
-      </c>
-      <c r="AJ35" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK35" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL35" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM35" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN35" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO35" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP35" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ35" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR35" s="8">
-        <v>0</v>
-      </c>
-      <c r="AS35" s="8">
-        <v>0</v>
-      </c>
-      <c r="AT35" s="8">
-        <v>0</v>
-      </c>
-      <c r="AU35" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV35" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW35" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX35" s="8">
-        <v>1</v>
-      </c>
-      <c r="AY35" s="8">
-        <v>0</v>
       </c>
       <c r="AZ35" s="8">
         <v>0.5</v>
       </c>
       <c r="BA35" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="BB35" s="8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BB35" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:54" x14ac:dyDescent="0.35">
@@ -6524,120 +6515,121 @@
       <c r="D36" t="s">
         <v>131</v>
       </c>
-      <c r="E36" t="s">
+      <c r="K36" s="7"/>
+      <c r="R36" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="S36" s="8">
+        <v>0</v>
+      </c>
+      <c r="T36" s="8">
+        <v>0</v>
+      </c>
+      <c r="U36" s="8">
+        <v>0</v>
+      </c>
+      <c r="V36" s="8">
+        <v>0</v>
+      </c>
+      <c r="W36" s="8">
+        <v>0</v>
+      </c>
+      <c r="X36" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="AJ36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW36" s="8">
+        <v>1</v>
+      </c>
+      <c r="AX36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AY36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ36" s="8">
+        <v>1</v>
+      </c>
+      <c r="BA36" s="8">
+        <v>0</v>
+      </c>
+      <c r="BB36" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="L36" s="7"/>
-      <c r="S36" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="T36" s="8">
-        <v>0</v>
-      </c>
-      <c r="U36" s="8">
-        <v>0</v>
-      </c>
-      <c r="V36" s="8">
-        <v>0</v>
-      </c>
-      <c r="W36" s="8">
-        <v>0</v>
-      </c>
-      <c r="X36" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="AK36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AS36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AT36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AU36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX36" s="8">
-        <v>1</v>
-      </c>
-      <c r="AY36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AZ36" s="8">
-        <v>0</v>
-      </c>
-      <c r="BA36" s="8">
-        <v>1</v>
-      </c>
-      <c r="BB36" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
@@ -6676,6 +6668,7 @@
       <c r="BB38" s="3"/>
     </row>
     <row r="39" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
@@ -6714,6 +6707,7 @@
       <c r="BB39" s="3"/>
     </row>
     <row r="40" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
@@ -6752,6 +6746,7 @@
       <c r="BB40" s="3"/>
     </row>
     <row r="41" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="R41" s="3"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
@@ -6790,6 +6785,7 @@
       <c r="BB41" s="3"/>
     </row>
     <row r="42" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="R42" s="3"/>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
@@ -6828,6 +6824,7 @@
       <c r="BB42" s="3"/>
     </row>
     <row r="43" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
@@ -6866,6 +6863,7 @@
       <c r="BB43" s="3"/>
     </row>
     <row r="44" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -6904,6 +6902,7 @@
       <c r="BB44" s="3"/>
     </row>
     <row r="45" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -6942,6 +6941,7 @@
       <c r="BB45" s="3"/>
     </row>
     <row r="46" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="R46" s="3"/>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -6980,6 +6980,7 @@
       <c r="BB46" s="3"/>
     </row>
     <row r="47" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="R47" s="3"/>
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
@@ -7018,6 +7019,7 @@
       <c r="BB47" s="3"/>
     </row>
     <row r="48" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="R48" s="3"/>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
@@ -7055,7 +7057,8 @@
       <c r="BA48" s="3"/>
       <c r="BB48" s="3"/>
     </row>
-    <row r="49" spans="19:54" x14ac:dyDescent="0.35">
+    <row r="49" spans="18:54" x14ac:dyDescent="0.35">
+      <c r="R49" s="3"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
@@ -7093,7 +7096,8 @@
       <c r="BA49" s="3"/>
       <c r="BB49" s="3"/>
     </row>
-    <row r="50" spans="19:54" x14ac:dyDescent="0.35">
+    <row r="50" spans="18:54" x14ac:dyDescent="0.35">
+      <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -7131,7 +7135,8 @@
       <c r="BA50" s="3"/>
       <c r="BB50" s="3"/>
     </row>
-    <row r="51" spans="19:54" x14ac:dyDescent="0.35">
+    <row r="51" spans="18:54" x14ac:dyDescent="0.35">
+      <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
@@ -7169,7 +7174,8 @@
       <c r="BA51" s="3"/>
       <c r="BB51" s="3"/>
     </row>
-    <row r="52" spans="19:54" x14ac:dyDescent="0.35">
+    <row r="52" spans="18:54" x14ac:dyDescent="0.35">
+      <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
@@ -7207,7 +7213,8 @@
       <c r="BA52" s="3"/>
       <c r="BB52" s="3"/>
     </row>
-    <row r="53" spans="19:54" x14ac:dyDescent="0.35">
+    <row r="53" spans="18:54" x14ac:dyDescent="0.35">
+      <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
@@ -7245,7 +7252,8 @@
       <c r="BA53" s="3"/>
       <c r="BB53" s="3"/>
     </row>
-    <row r="54" spans="19:54" x14ac:dyDescent="0.35">
+    <row r="54" spans="18:54" x14ac:dyDescent="0.35">
+      <c r="R54" s="3"/>
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
@@ -7283,7 +7291,8 @@
       <c r="BA54" s="3"/>
       <c r="BB54" s="3"/>
     </row>
-    <row r="55" spans="19:54" x14ac:dyDescent="0.35">
+    <row r="55" spans="18:54" x14ac:dyDescent="0.35">
+      <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
@@ -7321,7 +7330,8 @@
       <c r="BA55" s="3"/>
       <c r="BB55" s="3"/>
     </row>
-    <row r="56" spans="19:54" x14ac:dyDescent="0.35">
+    <row r="56" spans="18:54" x14ac:dyDescent="0.35">
+      <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
@@ -7359,7 +7369,8 @@
       <c r="BA56" s="3"/>
       <c r="BB56" s="3"/>
     </row>
-    <row r="57" spans="19:54" x14ac:dyDescent="0.35">
+    <row r="57" spans="18:54" x14ac:dyDescent="0.35">
+      <c r="R57" s="3"/>
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
       <c r="U57" s="3"/>
@@ -7397,7 +7408,8 @@
       <c r="BA57" s="3"/>
       <c r="BB57" s="3"/>
     </row>
-    <row r="58" spans="19:54" x14ac:dyDescent="0.35">
+    <row r="58" spans="18:54" x14ac:dyDescent="0.35">
+      <c r="R58" s="3"/>
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
@@ -7435,7 +7447,8 @@
       <c r="BA58" s="3"/>
       <c r="BB58" s="3"/>
     </row>
-    <row r="59" spans="19:54" x14ac:dyDescent="0.35">
+    <row r="59" spans="18:54" x14ac:dyDescent="0.35">
+      <c r="R59" s="3"/>
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
       <c r="U59" s="3"/>
@@ -7473,7 +7486,8 @@
       <c r="BA59" s="3"/>
       <c r="BB59" s="3"/>
     </row>
-    <row r="60" spans="19:54" x14ac:dyDescent="0.35">
+    <row r="60" spans="18:54" x14ac:dyDescent="0.35">
+      <c r="R60" s="3"/>
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
@@ -7511,7 +7525,8 @@
       <c r="BA60" s="3"/>
       <c r="BB60" s="3"/>
     </row>
-    <row r="61" spans="19:54" x14ac:dyDescent="0.35">
+    <row r="61" spans="18:54" x14ac:dyDescent="0.35">
+      <c r="R61" s="3"/>
       <c r="S61" s="3"/>
       <c r="T61" s="3"/>
       <c r="U61" s="3"/>
@@ -7549,7 +7564,8 @@
       <c r="BA61" s="3"/>
       <c r="BB61" s="3"/>
     </row>
-    <row r="62" spans="19:54" x14ac:dyDescent="0.35">
+    <row r="62" spans="18:54" x14ac:dyDescent="0.35">
+      <c r="R62" s="3"/>
       <c r="S62" s="3"/>
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
@@ -7587,7 +7603,8 @@
       <c r="BA62" s="3"/>
       <c r="BB62" s="3"/>
     </row>
-    <row r="63" spans="19:54" x14ac:dyDescent="0.35">
+    <row r="63" spans="18:54" x14ac:dyDescent="0.35">
+      <c r="R63" s="3"/>
       <c r="S63" s="3"/>
       <c r="T63" s="3"/>
       <c r="U63" s="3"/>
@@ -7625,7 +7642,8 @@
       <c r="BA63" s="3"/>
       <c r="BB63" s="3"/>
     </row>
-    <row r="64" spans="19:54" x14ac:dyDescent="0.35">
+    <row r="64" spans="18:54" x14ac:dyDescent="0.35">
+      <c r="R64" s="3"/>
       <c r="S64" s="3"/>
       <c r="T64" s="3"/>
       <c r="U64" s="3"/>
@@ -7663,7 +7681,8 @@
       <c r="BA64" s="3"/>
       <c r="BB64" s="3"/>
     </row>
-    <row r="65" spans="19:54" x14ac:dyDescent="0.35">
+    <row r="65" spans="18:54" x14ac:dyDescent="0.35">
+      <c r="R65" s="3"/>
       <c r="S65" s="3"/>
       <c r="T65" s="3"/>
       <c r="U65" s="3"/>
@@ -7701,7 +7720,8 @@
       <c r="BA65" s="3"/>
       <c r="BB65" s="3"/>
     </row>
-    <row r="66" spans="19:54" x14ac:dyDescent="0.35">
+    <row r="66" spans="18:54" x14ac:dyDescent="0.35">
+      <c r="R66" s="3"/>
       <c r="S66" s="3"/>
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
@@ -7739,7 +7759,8 @@
       <c r="BA66" s="3"/>
       <c r="BB66" s="3"/>
     </row>
-    <row r="67" spans="19:54" x14ac:dyDescent="0.35">
+    <row r="67" spans="18:54" x14ac:dyDescent="0.35">
+      <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
@@ -7777,7 +7798,8 @@
       <c r="BA67" s="3"/>
       <c r="BB67" s="3"/>
     </row>
-    <row r="68" spans="19:54" x14ac:dyDescent="0.35">
+    <row r="68" spans="18:54" x14ac:dyDescent="0.35">
+      <c r="R68" s="3"/>
       <c r="S68" s="3"/>
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
@@ -7815,7 +7837,8 @@
       <c r="BA68" s="3"/>
       <c r="BB68" s="3"/>
     </row>
-    <row r="69" spans="19:54" x14ac:dyDescent="0.35">
+    <row r="69" spans="18:54" x14ac:dyDescent="0.35">
+      <c r="R69" s="3"/>
       <c r="S69" s="3"/>
       <c r="T69" s="3"/>
       <c r="U69" s="3"/>
@@ -7853,7 +7876,8 @@
       <c r="BA69" s="3"/>
       <c r="BB69" s="3"/>
     </row>
-    <row r="70" spans="19:54" x14ac:dyDescent="0.35">
+    <row r="70" spans="18:54" x14ac:dyDescent="0.35">
+      <c r="R70" s="3"/>
       <c r="S70" s="3"/>
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
@@ -7891,7 +7915,8 @@
       <c r="BA70" s="3"/>
       <c r="BB70" s="3"/>
     </row>
-    <row r="71" spans="19:54" x14ac:dyDescent="0.35">
+    <row r="71" spans="18:54" x14ac:dyDescent="0.35">
+      <c r="R71" s="3"/>
       <c r="S71" s="3"/>
       <c r="T71" s="3"/>
       <c r="U71" s="3"/>
@@ -7929,7 +7954,8 @@
       <c r="BA71" s="3"/>
       <c r="BB71" s="3"/>
     </row>
-    <row r="72" spans="19:54" x14ac:dyDescent="0.35">
+    <row r="72" spans="18:54" x14ac:dyDescent="0.35">
+      <c r="R72" s="3"/>
       <c r="S72" s="3"/>
       <c r="T72" s="3"/>
       <c r="U72" s="3"/>
@@ -7967,7 +7993,8 @@
       <c r="BA72" s="3"/>
       <c r="BB72" s="3"/>
     </row>
-    <row r="73" spans="19:54" x14ac:dyDescent="0.35">
+    <row r="73" spans="18:54" x14ac:dyDescent="0.35">
+      <c r="R73" s="6"/>
       <c r="S73" s="6"/>
       <c r="T73" s="6"/>
       <c r="U73" s="6"/>
@@ -8005,7 +8032,8 @@
       <c r="BA73" s="6"/>
       <c r="BB73" s="6"/>
     </row>
-    <row r="74" spans="19:54" x14ac:dyDescent="0.35">
+    <row r="74" spans="18:54" x14ac:dyDescent="0.35">
+      <c r="R74" s="6"/>
       <c r="S74" s="6"/>
       <c r="T74" s="6"/>
       <c r="U74" s="6"/>
@@ -8043,7 +8071,8 @@
       <c r="BA74" s="6"/>
       <c r="BB74" s="6"/>
     </row>
-    <row r="75" spans="19:54" x14ac:dyDescent="0.35">
+    <row r="75" spans="18:54" x14ac:dyDescent="0.35">
+      <c r="R75" s="6"/>
       <c r="S75" s="6"/>
       <c r="T75" s="6"/>
       <c r="U75" s="6"/>
@@ -8081,7 +8110,8 @@
       <c r="BA75" s="6"/>
       <c r="BB75" s="6"/>
     </row>
-    <row r="76" spans="19:54" x14ac:dyDescent="0.35">
+    <row r="76" spans="18:54" x14ac:dyDescent="0.35">
+      <c r="R76" s="6"/>
       <c r="S76" s="6"/>
       <c r="T76" s="6"/>
       <c r="U76" s="6"/>
@@ -8119,7 +8149,8 @@
       <c r="BA76" s="6"/>
       <c r="BB76" s="6"/>
     </row>
-    <row r="77" spans="19:54" x14ac:dyDescent="0.35">
+    <row r="77" spans="18:54" x14ac:dyDescent="0.35">
+      <c r="R77" s="6"/>
       <c r="S77" s="6"/>
       <c r="T77" s="6"/>
       <c r="U77" s="6"/>
@@ -8157,7 +8188,8 @@
       <c r="BA77" s="6"/>
       <c r="BB77" s="6"/>
     </row>
-    <row r="78" spans="19:54" x14ac:dyDescent="0.35">
+    <row r="78" spans="18:54" x14ac:dyDescent="0.35">
+      <c r="R78" s="6"/>
       <c r="S78" s="6"/>
       <c r="T78" s="6"/>
       <c r="U78" s="6"/>
@@ -8195,7 +8227,8 @@
       <c r="BA78" s="6"/>
       <c r="BB78" s="6"/>
     </row>
-    <row r="79" spans="19:54" x14ac:dyDescent="0.35">
+    <row r="79" spans="18:54" x14ac:dyDescent="0.35">
+      <c r="R79" s="6"/>
       <c r="S79" s="6"/>
       <c r="T79" s="6"/>
       <c r="U79" s="6"/>
@@ -8233,7 +8266,8 @@
       <c r="BA79" s="6"/>
       <c r="BB79" s="6"/>
     </row>
-    <row r="80" spans="19:54" x14ac:dyDescent="0.35">
+    <row r="80" spans="18:54" x14ac:dyDescent="0.35">
+      <c r="R80" s="6"/>
       <c r="S80" s="6"/>
       <c r="T80" s="6"/>
       <c r="U80" s="6"/>
